--- a/Week_7/reTesting.xlsx
+++ b/Week_7/reTesting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\QA\Week_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA65B36-F330-4EE2-BED9-EBEAA58C689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE76C0CD-8AD4-44A5-9AE6-0ACB85DD66C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40891742-B03F-4153-8FC7-03D28505703E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{40891742-B03F-4153-8FC7-03D28505703E}"/>
   </bookViews>
   <sheets>
     <sheet name="regression " sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="4">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -56,40 +56,20 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="3"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
-  <valueMetadata count="4">
+  <valueMetadata count="2">
     <bk>
       <rc t="1" v="0"/>
     </bk>
     <bk>
       <rc t="1" v="1"/>
     </bk>
-    <bk>
-      <rc t="1" v="2"/>
-    </bk>
-    <bk>
-      <rc t="1" v="3"/>
-    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="380">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1085,9 +1065,6 @@
     <t>https://prometheusqastage1.wixsite.com/skybot</t>
   </si>
   <si>
-    <t>functionality not implemented</t>
-  </si>
-  <si>
     <t>The provider's documentation indicates that CDN is used. This is confirmed through Devtools</t>
   </si>
   <si>
@@ -1100,39 +1077,15 @@
     <t>pas - qwerty123</t>
   </si>
   <si>
-    <t>There is still no Login/Registration button. To register, you need to go to the Members section. In this section there is only a login button, which is also a Registration button.</t>
-  </si>
-  <si>
     <t>The redirect did not occur and the confirmation email was not received</t>
   </si>
   <si>
-    <t>It is impossible to check the functionality because there is no logout button</t>
-  </si>
-  <si>
-    <t>It is impossible to check the functionality because there is no logout button. And you cannot register again or enter a different login</t>
-  </si>
-  <si>
-    <t>There is no product search bar on the main page. The Shop section is not implemented</t>
-  </si>
-  <si>
     <t>Checkout page not implemented</t>
   </si>
   <si>
-    <t>The shop section is not implemented. You can add a product to your cart from the carousel on the main page</t>
-  </si>
-  <si>
     <t>https://cloud.gatling.io/</t>
   </si>
   <si>
-    <t>Portal under high traffic simulation has very bad response. For testing I used 3 users per second min and 15 users per second max.</t>
-  </si>
-  <si>
-    <t>it is impossible to check because the search, registration, checkout functionality is not implemented or is not implemented properly</t>
-  </si>
-  <si>
-    <t>impossible to test because payment is not implemented</t>
-  </si>
-  <si>
     <t>Verify Product Information Page</t>
   </si>
   <si>
@@ -1211,15 +1164,6 @@
     <t>Check for details including product specifications, features, pricing, availability  etc.</t>
   </si>
   <si>
-    <t>text formatting is not readable</t>
-  </si>
-  <si>
-    <t>Several products have been tested, no video available</t>
-  </si>
-  <si>
-    <t>product description in different languages, text formatting is not readable. Some products have no description</t>
-  </si>
-  <si>
     <t>https://www.sslshopper.com/</t>
   </si>
   <si>
@@ -1229,13 +1173,43 @@
     <t>SSL configuration received a high rating (A)</t>
   </si>
   <si>
-    <t>I couldn’t test the protection against DDoS attacks because I don’t have the tools :) Wix claims that they have protection installed</t>
-  </si>
-  <si>
     <t>I can’t test because I don’t have access to the server</t>
   </si>
   <si>
     <t>https://prometheusqastage3.wixsite.com/skybot</t>
+  </si>
+  <si>
+    <t>User is not redirected to the dashboard</t>
+  </si>
+  <si>
+    <t>Welcome message or dashboard is not displayed</t>
+  </si>
+  <si>
+    <t>User is redirected to the portal homepage</t>
+  </si>
+  <si>
+    <t>Shows message - We can't accept online orders right now</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>when I tried to run 500 users per second, the hoster blocked me. DDoS protection works</t>
+  </si>
+  <si>
+    <t>Wix claims that they have protection installed</t>
+  </si>
+  <si>
+    <t>Homepage loads with error</t>
+  </si>
+  <si>
+    <t>The top part of the site is not laid out correctly. It runs into the main part of the site and blocks it</t>
+  </si>
+  <si>
+    <t>Search bar is not visible</t>
+  </si>
+  <si>
+    <t>search functionality is not implemented</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1313,6 +1287,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1327,7 +1307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1374,27 +1354,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1455,21 +1443,13 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <rv s="0">
     <v>0</v>
     <v>5</v>
   </rv>
   <rv s="0">
     <v>1</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>2</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>3</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -1488,8 +1468,6 @@
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
-  <rel r:id="rId3"/>
-  <rel r:id="rId4"/>
 </richValueRels>
 </file>
 
@@ -1812,9 +1790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B395795-09EF-4018-BAA2-155C46CAB621}">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1823,8 +1801,8 @@
     <col min="2" max="3" width="51.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="55.140625" customWidth="1"/>
     <col min="5" max="5" width="43.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="42" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1838,7 +1816,7 @@
       <c r="E1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="27" t="s">
         <v>125</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -1911,8 +1889,10 @@
       <c r="D9" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="15"/>
+      <c r="E9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="19"/>
@@ -1923,8 +1903,10 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="15"/>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:7" ht="39.75" customHeight="1">
       <c r="A11" s="19"/>
@@ -1935,8 +1917,10 @@
       <c r="D11" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="15"/>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1"/>
@@ -1951,7 +1935,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1960,7 +1944,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1972,8 +1956,8 @@
       <c r="D15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>337</v>
+      <c r="E15" s="21" t="s">
+        <v>335</v>
       </c>
       <c r="F15" s="15"/>
     </row>
@@ -1986,7 +1970,7 @@
       <c r="D16" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
@@ -2002,9 +1986,13 @@
         <v>34</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="24" t="s">
         <v>130</v>
       </c>
+      <c r="E18" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="19"/>
@@ -2012,8 +2000,9 @@
         <v>33</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="18"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="19"/>
@@ -2021,9 +2010,9 @@
         <v>32</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="15"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="19"/>
@@ -2031,9 +2020,9 @@
         <v>31</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="15"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="19"/>
@@ -2044,8 +2033,10 @@
       <c r="D22" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="15"/>
+      <c r="E22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="19"/>
@@ -2056,7 +2047,10 @@
       <c r="D23" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1">
       <c r="A24" s="3"/>
@@ -2110,7 +2104,7 @@
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33" s="19" t="s">
         <v>15</v>
       </c>
@@ -2120,9 +2114,12 @@
       <c r="D33" t="s">
         <v>133</v>
       </c>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="E33" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="19"/>
       <c r="B34" s="8" t="s">
         <v>17</v>
@@ -2130,10 +2127,12 @@
       <c r="D34" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="19"/>
       <c r="B35" s="8" t="s">
         <v>18</v>
@@ -2141,14 +2140,15 @@
       <c r="D35" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="E36" s="18"/>
-      <c r="F36" s="15"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="19" t="s">
         <v>19</v>
       </c>
@@ -2156,23 +2156,21 @@
         <v>21</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="1:6">
+        <v>333</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="19"/>
       <c r="B38" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:6">
+        <v>334</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="19"/>
       <c r="B39" s="8" t="s">
         <v>22</v>
@@ -2180,10 +2178,15 @@
       <c r="D39" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="18"/>
+      <c r="E39" t="s">
+        <v>369</v>
+      </c>
       <c r="F39" s="15"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30">
       <c r="A40" s="19"/>
       <c r="B40" s="8" t="s">
         <v>23</v>
@@ -2191,24 +2194,25 @@
       <c r="D40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="18"/>
+      <c r="E40" s="5" t="s">
+        <v>370</v>
+      </c>
       <c r="F40" s="15"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="E41" s="18"/>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="15"/>
-    </row>
-    <row r="43" spans="1:6" ht="30">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" ht="30">
       <c r="A43" s="19"/>
       <c r="B43" s="8" t="s">
         <v>26</v>
@@ -2216,18 +2220,20 @@
       <c r="D43" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="E43" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="19"/>
       <c r="B44" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="15"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="E44" s="2"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="19"/>
       <c r="B45" s="8" t="s">
         <v>26</v>
@@ -2235,18 +2241,20 @@
       <c r="D45" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="19"/>
       <c r="B46" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="15"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="E46" s="2"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="19"/>
       <c r="B47" s="8" t="s">
         <v>26</v>
@@ -2254,6 +2262,10 @@
       <c r="D47" t="s">
         <v>136</v>
       </c>
+      <c r="E47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="16"/>
     </row>
     <row r="50" spans="1:6" ht="18.75">
       <c r="A50" s="11" t="s">
@@ -2310,10 +2322,10 @@
       <c r="D57" t="s">
         <v>140</v>
       </c>
-      <c r="E57" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="F57" s="15"/>
+      <c r="E57" t="s">
+        <v>140</v>
+      </c>
+      <c r="F57" s="16"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="19"/>
@@ -2323,8 +2335,10 @@
       <c r="D58" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="15"/>
+      <c r="E58" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="16"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="19" t="s">
@@ -2365,10 +2379,10 @@
       <c r="B63" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E63" s="20" t="s">
         <v>144</v>
       </c>
       <c r="F63" s="16"/>
@@ -2378,33 +2392,33 @@
       <c r="B64" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
       <c r="F64" s="16"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:7">
       <c r="A65" s="19"/>
       <c r="B65" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D65" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="E65" s="20" t="s">
         <v>145</v>
       </c>
       <c r="F65" s="16"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:7">
       <c r="A66" s="19"/>
       <c r="B66" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
       <c r="F66" s="16"/>
     </row>
-    <row r="68" spans="1:6" ht="18.75">
+    <row r="68" spans="1:7" ht="18.75">
       <c r="A68" s="11" t="s">
         <v>11</v>
       </c>
@@ -2413,7 +2427,7 @@
       </c>
       <c r="C68" s="9"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:7">
       <c r="A69" s="13" t="s">
         <v>0</v>
       </c>
@@ -2422,7 +2436,7 @@
       </c>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:6" ht="30">
+    <row r="70" spans="1:7" ht="30">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -2431,7 +2445,7 @@
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:6" ht="30">
+    <row r="71" spans="1:7" ht="30">
       <c r="A71" s="1" t="s">
         <v>4</v>
       </c>
@@ -2440,8 +2454,8 @@
       </c>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="26.25" customHeight="1"/>
-    <row r="73" spans="1:6">
+    <row r="72" spans="1:7" ht="26.25" customHeight="1"/>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -2450,7 +2464,7 @@
       </c>
       <c r="C73" s="1"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:7">
       <c r="A75" s="19" t="s">
         <v>61</v>
       </c>
@@ -2465,53 +2479,56 @@
       </c>
       <c r="F75" s="16"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:7">
       <c r="A76" s="19"/>
       <c r="B76" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E76" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="F76" s="15"/>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="E76" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="19"/>
       <c r="B77" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="15"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="E78" s="18"/>
-      <c r="F78" s="15"/>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="D77" s="20"/>
+      <c r="E77" s="21"/>
+      <c r="G77" s="21"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="E78" s="21"/>
+      <c r="G78" s="21"/>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D79" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="15"/>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="E79" s="21"/>
+      <c r="G79" s="21"/>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="19"/>
       <c r="B80" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="18"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="21"/>
       <c r="F80" s="15"/>
+      <c r="G80" s="21"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="19"/>
@@ -2521,12 +2538,14 @@
       <c r="D81" t="s">
         <v>70</v>
       </c>
-      <c r="E81" s="18"/>
+      <c r="E81" s="21"/>
       <c r="F81" s="15"/>
+      <c r="G81" s="21"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="E82" s="18"/>
+      <c r="E82" s="21"/>
       <c r="F82" s="15"/>
+      <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="19" t="s">
@@ -2535,22 +2554,24 @@
       <c r="B83" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="E83" s="18"/>
+      <c r="E83" s="21"/>
       <c r="F83" s="15"/>
+      <c r="G83" s="21"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="19"/>
       <c r="B84" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
       <c r="F84" s="15"/>
-    </row>
-    <row r="85" spans="1:7" ht="30">
+      <c r="G84" s="21"/>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="19"/>
       <c r="B85" s="8" t="s">
         <v>35</v>
@@ -2558,8 +2579,9 @@
       <c r="D85" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E85" s="18"/>
+      <c r="E85" s="21"/>
       <c r="F85" s="15"/>
+      <c r="G85" s="21"/>
     </row>
     <row r="86" spans="1:7" ht="18.75">
       <c r="A86" s="11" t="s">
@@ -2626,14 +2648,14 @@
       <c r="B93" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="21" t="s">
         <v>167</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E93" s="18" t="s">
-        <v>332</v>
+      <c r="E93" s="21" t="s">
+        <v>331</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" t="e" vm="1">
@@ -2645,17 +2667,18 @@
       <c r="B94" t="s">
         <v>166</v>
       </c>
-      <c r="C94" s="18"/>
+      <c r="C94" s="21"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="18"/>
+      <c r="E94" s="21"/>
       <c r="F94" s="16"/>
-      <c r="G94" t="e" vm="2">
-        <v>#VALUE!</v>
+      <c r="G94" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="C95"/>
       <c r="D95" s="8"/>
+      <c r="F95" s="16"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="19" t="s">
@@ -2664,26 +2687,29 @@
       <c r="B96" t="s">
         <v>169</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="21" t="s">
         <v>171</v>
       </c>
       <c r="D96" s="1"/>
-      <c r="E96" s="18" t="s">
-        <v>333</v>
-      </c>
+      <c r="E96" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="F96" s="16"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="19"/>
       <c r="B97" t="s">
         <v>170</v>
       </c>
-      <c r="C97" s="18"/>
+      <c r="C97" s="21"/>
       <c r="D97" s="8"/>
-      <c r="E97" s="18"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="16"/>
     </row>
     <row r="98" spans="1:6">
       <c r="C98"/>
       <c r="D98" s="8"/>
+      <c r="F98" s="16"/>
     </row>
     <row r="99" spans="1:6" ht="45">
       <c r="A99" s="1" t="s">
@@ -2696,6 +2722,7 @@
         <v>174</v>
       </c>
       <c r="D99" s="8"/>
+      <c r="F99" s="16"/>
     </row>
     <row r="101" spans="1:6" ht="18.75">
       <c r="A101" s="11" t="s">
@@ -2765,8 +2792,8 @@
       <c r="C108" t="s">
         <v>184</v>
       </c>
-      <c r="D108" s="25" t="s">
-        <v>381</v>
+      <c r="D108" s="18" t="s">
+        <v>368</v>
       </c>
       <c r="E108" t="s">
         <v>184</v>
@@ -2790,6 +2817,7 @@
     <row r="110" spans="1:6">
       <c r="C110"/>
       <c r="D110" s="8"/>
+      <c r="F110" s="16"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="19" t="s">
@@ -2798,11 +2826,11 @@
       <c r="B111" t="s">
         <v>187</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C111" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D111" s="8"/>
-      <c r="E111" s="18" t="s">
+      <c r="E111" s="21" t="s">
         <v>189</v>
       </c>
       <c r="F111" s="16"/>
@@ -2812,14 +2840,15 @@
       <c r="B112" t="s">
         <v>188</v>
       </c>
-      <c r="C112" s="18"/>
+      <c r="C112" s="21"/>
       <c r="D112" s="8"/>
-      <c r="E112" s="18"/>
+      <c r="E112" s="21"/>
       <c r="F112" s="16"/>
     </row>
     <row r="113" spans="1:6">
       <c r="C113"/>
       <c r="D113" s="8"/>
+      <c r="F113" s="16"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="19" t="s">
@@ -2828,13 +2857,13 @@
       <c r="B114" t="s">
         <v>191</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D114" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E114" s="18" t="s">
+      <c r="D114" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="E114" s="21" t="s">
         <v>193</v>
       </c>
       <c r="F114" s="16"/>
@@ -2844,14 +2873,15 @@
       <c r="B115" t="s">
         <v>192</v>
       </c>
-      <c r="C115" s="18"/>
+      <c r="C115" s="21"/>
       <c r="D115" s="8"/>
-      <c r="E115" s="18"/>
+      <c r="E115" s="21"/>
       <c r="F115" s="16"/>
     </row>
     <row r="116" spans="1:6" ht="18.75">
       <c r="C116"/>
       <c r="D116" s="9"/>
+      <c r="F116" s="16"/>
     </row>
     <row r="117" spans="1:6" ht="30">
       <c r="A117" s="1" t="s">
@@ -2863,11 +2893,11 @@
       <c r="C117" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D117" s="6" t="s">
-        <v>377</v>
+      <c r="D117" s="29" t="s">
+        <v>365</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F117" s="16"/>
     </row>
@@ -2953,15 +2983,17 @@
       <c r="C127" t="s">
         <v>205</v>
       </c>
-      <c r="D127" s="18" t="s">
-        <v>379</v>
-      </c>
+      <c r="D127" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="F127" s="16"/>
     </row>
     <row r="128" spans="1:6">
       <c r="C128"/>
-      <c r="D128" s="18"/>
-    </row>
-    <row r="129" spans="1:4" ht="30">
+      <c r="D128" s="21"/>
+      <c r="F128" s="16"/>
+    </row>
+    <row r="129" spans="1:7" ht="30">
       <c r="A129" s="19" t="s">
         <v>206</v>
       </c>
@@ -2971,9 +3003,13 @@
       <c r="C129" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D129" s="18"/>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="D129" s="21"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="19"/>
       <c r="B130" s="2" t="s">
         <v>208</v>
@@ -2981,13 +3017,17 @@
       <c r="C130" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D130" s="18"/>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="D130" s="21"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="21"/>
+    </row>
+    <row r="131" spans="1:7">
       <c r="C131"/>
-      <c r="D131" s="18"/>
-    </row>
-    <row r="132" spans="1:4" ht="30">
+      <c r="D131" s="21"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="21"/>
+    </row>
+    <row r="132" spans="1:7" ht="30">
       <c r="A132" s="19" t="s">
         <v>210</v>
       </c>
@@ -2997,9 +3037,11 @@
       <c r="C132" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D132" s="18"/>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="D132" s="21"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="21"/>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="19"/>
       <c r="B133" s="2" t="s">
         <v>212</v>
@@ -3008,12 +3050,13 @@
         <v>214</v>
       </c>
       <c r="D133" s="8"/>
-    </row>
-    <row r="134" spans="1:4" ht="18.75">
+      <c r="F133" s="16"/>
+    </row>
+    <row r="134" spans="1:7" ht="18.75">
       <c r="C134"/>
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="1:4" ht="18.75">
+    <row r="135" spans="1:7" ht="18.75">
       <c r="A135" s="11" t="s">
         <v>11</v>
       </c>
@@ -3023,7 +3066,7 @@
       <c r="C135"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:7">
       <c r="A136" s="13" t="s">
         <v>0</v>
       </c>
@@ -3033,7 +3076,7 @@
       <c r="C136"/>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4" ht="30">
+    <row r="137" spans="1:7" ht="30">
       <c r="A137" s="1" t="s">
         <v>2</v>
       </c>
@@ -3043,7 +3086,7 @@
       <c r="C137"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" ht="30">
+    <row r="138" spans="1:7" ht="30">
       <c r="A138" s="1" t="s">
         <v>4</v>
       </c>
@@ -3053,11 +3096,11 @@
       <c r="C138"/>
       <c r="D138" s="8"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:7">
       <c r="C139"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
         <v>5</v>
       </c>
@@ -3067,11 +3110,11 @@
       <c r="C140"/>
       <c r="D140" s="8"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:7">
       <c r="C141"/>
       <c r="D141" s="8"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:7">
       <c r="A142" s="19" t="s">
         <v>219</v>
       </c>
@@ -3083,7 +3126,7 @@
       </c>
       <c r="D142" s="8"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:7">
       <c r="A143" s="19"/>
       <c r="B143" s="2" t="s">
         <v>221</v>
@@ -3091,13 +3134,13 @@
       <c r="C143" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D143" s="18" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="D143" s="21" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="C144"/>
-      <c r="D144" s="18"/>
+      <c r="D144" s="21"/>
     </row>
     <row r="145" spans="1:7" ht="30">
       <c r="A145" s="19" t="s">
@@ -3109,7 +3152,7 @@
       <c r="C145" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D145" s="18"/>
+      <c r="D145" s="21"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="19"/>
@@ -3119,11 +3162,11 @@
       <c r="C146" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D146" s="18"/>
+      <c r="D146" s="21"/>
     </row>
     <row r="147" spans="1:7">
       <c r="C147"/>
-      <c r="D147" s="18"/>
+      <c r="D147" s="21"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="19" t="s">
@@ -3135,7 +3178,7 @@
       <c r="C148" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D148" s="18"/>
+      <c r="D148" s="21"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="19"/>
@@ -3234,7 +3277,7 @@
     <row r="160" spans="1:7">
       <c r="C160"/>
       <c r="D160" s="2"/>
-      <c r="G160" s="18" t="e" vm="3">
+      <c r="G160" s="21" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3252,8 +3295,7 @@
       <c r="E161" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F161" s="16"/>
-      <c r="G161" s="18"/>
+      <c r="G161" s="21"/>
     </row>
     <row r="162" spans="1:7" ht="30">
       <c r="A162" s="19"/>
@@ -3267,8 +3309,7 @@
       <c r="E162" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F162" s="16"/>
-      <c r="G162" s="18"/>
+      <c r="G162" s="21"/>
     </row>
     <row r="163" spans="1:7">
       <c r="C163"/>
@@ -3298,22 +3339,18 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G76:G85"/>
+    <mergeCell ref="G129:G132"/>
+    <mergeCell ref="D127:D132"/>
+    <mergeCell ref="D143:D148"/>
+    <mergeCell ref="G160:G162"/>
     <mergeCell ref="C93:C94"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="C96:C97"/>
     <mergeCell ref="A93:A94"/>
     <mergeCell ref="E93:E94"/>
     <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="D127:D132"/>
-    <mergeCell ref="D143:D148"/>
-    <mergeCell ref="G160:G162"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="C114:C115"/>
     <mergeCell ref="A161:A162"/>
     <mergeCell ref="A164:A165"/>
     <mergeCell ref="A132:A133"/>
@@ -3322,23 +3359,22 @@
     <mergeCell ref="A148:A149"/>
     <mergeCell ref="A158:A159"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="E9:E11"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E18:E21"/>
     <mergeCell ref="A33:A35"/>
-    <mergeCell ref="E33:E46"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A42:A47"/>
     <mergeCell ref="A57:A58"/>
-    <mergeCell ref="E57:E58"/>
     <mergeCell ref="A60:A66"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="E63:E64"/>
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A129:A130"/>
     <mergeCell ref="A75:A77"/>
     <mergeCell ref="D76:D77"/>
     <mergeCell ref="E76:E85"/>
@@ -3346,24 +3382,31 @@
     <mergeCell ref="D79:D80"/>
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="D83:D84"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E114:E115"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D108" r:id="rId1" xr:uid="{8EF57B69-76D7-4A0E-842C-BB87C930C5F9}"/>
+    <hyperlink ref="D114" r:id="rId2" xr:uid="{6A5BE4BE-E43B-4344-9EBA-497434EDE071}"/>
+    <hyperlink ref="D117" r:id="rId3" xr:uid="{40CE4E8F-6D59-433D-A9E5-3D1BBA961F05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8D4B5D-2F4C-4BCB-8A3F-2BEA1FF7CC10}">
-  <dimension ref="A1:G303"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3372,8 +3415,8 @@
     <col min="2" max="3" width="51.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="5" width="43.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3387,2688 +3430,1822 @@
       <c r="E1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="27" t="s">
         <v>125</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="11" t="s">
+    <row r="3" spans="1:7" ht="18.75">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="60" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="B4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="54.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="F9" s="15"/>
-    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1"/>
     <row r="10" spans="1:7">
-      <c r="A10" s="19"/>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4"/>
+      <c r="A10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="18"/>
+        <v>137</v>
+      </c>
+      <c r="E10" t="s">
+        <v>376</v>
+      </c>
       <c r="F10" s="15"/>
+      <c r="G10" s="2" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="39.75" customHeight="1">
       <c r="A11" s="19"/>
-      <c r="B11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="4"/>
+      <c r="B11" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="D11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>378</v>
+      </c>
       <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>334</v>
-      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19"/>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="A14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19"/>
-      <c r="B15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>337</v>
-      </c>
+      <c r="B15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="29.25" customHeight="1">
       <c r="A16" s="19"/>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1"/>
+    <row r="19" spans="1:6" ht="15" customHeight="1"/>
+    <row r="20" spans="1:6" ht="15" customHeight="1"/>
+    <row r="21" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="33" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="51.75" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A28" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="25"/>
+      <c r="B29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="25"/>
+      <c r="B30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="25"/>
+      <c r="B33" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="25"/>
+      <c r="B34" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" ht="30">
+      <c r="A35" s="25"/>
+      <c r="B35" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="1:5" ht="30">
+      <c r="A36" s="25"/>
+      <c r="B36" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="18" t="s">
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="1:5" ht="30">
+      <c r="A39" s="25"/>
+      <c r="B39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="25"/>
+      <c r="B40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="25"/>
+      <c r="B41" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="18.75">
+      <c r="A44" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:5" ht="30">
+      <c r="A46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="1:5" ht="30">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48"/>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50"/>
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" t="s">
+        <v>259</v>
+      </c>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="19"/>
+      <c r="B52" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="26"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="26"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B54" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="26"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="19"/>
+      <c r="B55" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="26"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="26"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B57" t="s">
+        <v>266</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D57" s="21"/>
+      <c r="E57" s="26"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="19"/>
+      <c r="B58" t="s">
+        <v>267</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="26"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="26"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B60" t="s">
+        <v>270</v>
+      </c>
+      <c r="C60" t="s">
+        <v>272</v>
+      </c>
+      <c r="D60" s="21"/>
+      <c r="E60" s="26"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="19"/>
+      <c r="B61" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" t="s">
+        <v>273</v>
+      </c>
+      <c r="D61" s="21"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="64" spans="1:5" ht="18.75">
+      <c r="A64" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" ht="30">
+      <c r="A66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" ht="30">
+      <c r="A67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="71" spans="1:5" ht="30">
+      <c r="A71" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E71" s="21"/>
+    </row>
+    <row r="72" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A72" s="25"/>
+      <c r="B72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="21"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="E73" s="21"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E74" s="21"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="25"/>
+      <c r="B75" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="23"/>
+      <c r="E75" s="21"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="25"/>
+      <c r="B76" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E76" s="21"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="25"/>
+      <c r="B77" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="20"/>
+      <c r="E77" s="21"/>
+    </row>
+    <row r="79" spans="1:5" ht="18.75">
+      <c r="A79" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" s="9"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" ht="30">
+      <c r="A81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" ht="30">
+      <c r="A82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="86" spans="1:5" ht="30">
+      <c r="A86" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E86" s="21"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="25"/>
+      <c r="B87" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" t="s">
+        <v>156</v>
+      </c>
+      <c r="E87" s="21"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="25"/>
+      <c r="B88" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" t="s">
+        <v>157</v>
+      </c>
+      <c r="E88" s="21"/>
+    </row>
+    <row r="90" spans="1:5" ht="30">
+      <c r="A90" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E90" s="21"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="25"/>
+      <c r="B91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s">
+        <v>159</v>
+      </c>
+      <c r="E91" s="21"/>
+    </row>
+    <row r="93" spans="1:5" ht="18.75">
+      <c r="A93" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="12" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="19"/>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="18.75">
-      <c r="A26" s="11" t="s">
+      <c r="C93" s="9"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" ht="30">
+      <c r="A95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" ht="30">
+      <c r="A96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="B97"/>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="B99"/>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B100" t="s">
+        <v>279</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="E100" s="21"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="19"/>
+      <c r="B101" t="s">
+        <v>342</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="B102"/>
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" ht="30">
+      <c r="A103" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E103" s="24"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="19"/>
+      <c r="B104" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E104" s="24"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="B105"/>
+      <c r="C105" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="30">
+      <c r="A106" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="19"/>
+      <c r="B107" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="B108"/>
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" ht="30">
+      <c r="A109" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E109" s="21"/>
+    </row>
+    <row r="110" spans="1:5" ht="30">
+      <c r="A110" s="19"/>
+      <c r="B110" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E110" s="21"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B112" t="s">
+        <v>359</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" t="s">
+        <v>361</v>
+      </c>
+      <c r="E112" s="21"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="19"/>
+      <c r="B113" t="s">
+        <v>360</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" t="s">
+        <v>362</v>
+      </c>
+      <c r="E113" s="21"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="B114"/>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="B115"/>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" ht="18.75">
+      <c r="A116" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="13" t="s">
+      <c r="B116" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="18.75">
+      <c r="A117" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="B117" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C117" s="9"/>
+    </row>
+    <row r="118" spans="1:5" ht="30">
+      <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="30">
-      <c r="A29" s="1" t="s">
+      <c r="B118" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
+      <c r="B119" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="B120"/>
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="19"/>
-      <c r="B34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="19"/>
-      <c r="B35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="E36" s="18"/>
-      <c r="F36" s="15"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="17" t="s">
+    </row>
+    <row r="122" spans="1:5">
+      <c r="B122"/>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B123" t="s">
+        <v>279</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="E123" s="21"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="19"/>
+      <c r="B124" t="s">
+        <v>280</v>
+      </c>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="B125"/>
+      <c r="E125" s="21"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="B126" t="s">
+        <v>283</v>
+      </c>
+      <c r="D126" t="s">
+        <v>285</v>
+      </c>
+      <c r="E126" s="21"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="19"/>
+      <c r="B127" t="s">
+        <v>284</v>
+      </c>
+      <c r="D127" t="s">
+        <v>286</v>
+      </c>
+      <c r="E127" s="21"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="B128"/>
+      <c r="C128" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E128" s="21"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B129" t="s">
+        <v>288</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="19"/>
-      <c r="B38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="19"/>
-      <c r="B39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="15"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="19"/>
-      <c r="B40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="15"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="E41" s="18"/>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="15"/>
-    </row>
-    <row r="43" spans="1:6" ht="30">
-      <c r="A43" s="19"/>
-      <c r="B43" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="19"/>
-      <c r="B44" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="15"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="19"/>
-      <c r="B45" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="19"/>
-      <c r="B46" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="15"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="19"/>
-      <c r="B47" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="18.75">
-      <c r="A49" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="9"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" ht="30">
-      <c r="A51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" ht="30">
-      <c r="A52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" t="s">
-        <v>137</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="F56" s="15"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="19"/>
-      <c r="B57" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" t="s">
-        <v>50</v>
-      </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="15"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="19"/>
-      <c r="B58" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" t="s">
-        <v>138</v>
-      </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="15"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="E59" s="18"/>
-      <c r="F59" s="15"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="15"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="19"/>
-      <c r="B61" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" t="s">
-        <v>139</v>
-      </c>
-      <c r="E61" s="18"/>
-      <c r="F61" s="15"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="19"/>
-      <c r="B62" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D62" t="s">
-        <v>55</v>
-      </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="15"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="19"/>
-      <c r="B63" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" s="18"/>
-      <c r="F63" s="15"/>
-    </row>
-    <row r="65" spans="1:6" ht="18.75">
-      <c r="A65" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="9"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" ht="30">
-      <c r="A67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" ht="30">
-      <c r="A68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="1"/>
-    </row>
-    <row r="72" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A72" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D72" t="s">
-        <v>140</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="F72" s="15"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="19"/>
-      <c r="B73" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="15"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="19"/>
-      <c r="B76" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76" t="s">
-        <v>142</v>
-      </c>
-      <c r="E76" t="s">
-        <v>142</v>
-      </c>
-      <c r="F76" s="16"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="19"/>
-      <c r="B77" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D77" t="s">
-        <v>143</v>
-      </c>
-      <c r="E77" t="s">
-        <v>143</v>
-      </c>
-      <c r="F77" s="16"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="19"/>
-      <c r="B78" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F78" s="16"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="19"/>
-      <c r="B79" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="16"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="19"/>
-      <c r="B80" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F80" s="16"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="19"/>
-      <c r="B81" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="16"/>
-    </row>
-    <row r="83" spans="1:6" ht="18.75">
-      <c r="A83" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C83" s="9"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" ht="30">
-      <c r="A85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" ht="30">
-      <c r="A86" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C86" s="2"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="1"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D90" t="s">
-        <v>140</v>
-      </c>
-      <c r="E90" t="s">
-        <v>140</v>
-      </c>
-      <c r="F90" s="16"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="19"/>
-      <c r="B91" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="F91" s="15"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="19"/>
-      <c r="B92" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D92" s="21"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="15"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="E93" s="18"/>
-      <c r="F93" s="15"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D94" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E94" s="18"/>
-      <c r="F94" s="15"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="19"/>
-      <c r="B95" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D95" s="22"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="15"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="19"/>
-      <c r="B96" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D96" t="s">
-        <v>70</v>
-      </c>
-      <c r="E96" s="18"/>
-      <c r="F96" s="15"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="E97" s="18"/>
-      <c r="F97" s="15"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E98" s="18"/>
-      <c r="F98" s="15"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="19"/>
-      <c r="B99" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="15"/>
-    </row>
-    <row r="100" spans="1:6" ht="30">
-      <c r="A100" s="19"/>
-      <c r="B100" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E100" s="18"/>
-      <c r="F100" s="15"/>
-    </row>
-    <row r="102" spans="1:6" ht="18.75">
-      <c r="A102" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C102" s="9"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" ht="30">
-      <c r="A104" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C104" s="2"/>
-    </row>
-    <row r="105" spans="1:6" ht="30">
-      <c r="A105" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C105" s="2"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C107" s="1"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D109" t="s">
-        <v>140</v>
-      </c>
-      <c r="E109" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="F109" s="15"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="20"/>
-      <c r="B110" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D110" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E110" s="18"/>
-      <c r="F110" s="15"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="20"/>
-      <c r="B111" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="15"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="E112" s="18"/>
-      <c r="F112" s="15"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D113" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E113" s="18"/>
-      <c r="F113" s="15"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="20"/>
-      <c r="B114" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D114" s="21"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="15"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="20"/>
-      <c r="B115" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D115" s="21"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="15"/>
-    </row>
-    <row r="116" spans="1:6" ht="30">
-      <c r="A116" s="20"/>
-      <c r="B116" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E116" s="18"/>
-      <c r="F116" s="15"/>
-    </row>
-    <row r="117" spans="1:6" ht="30">
-      <c r="A117" s="20"/>
-      <c r="B117" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E117" s="18"/>
-      <c r="F117" s="15"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="E118" s="18"/>
-      <c r="F118" s="15"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E119" s="18"/>
-      <c r="F119" s="15"/>
-    </row>
-    <row r="120" spans="1:6" ht="30">
-      <c r="A120" s="20"/>
-      <c r="B120" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E120" s="18"/>
-      <c r="F120" s="15"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="20"/>
-      <c r="B121" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D121" t="s">
-        <v>99</v>
-      </c>
-      <c r="E121" s="18"/>
-      <c r="F121" s="15"/>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="20"/>
-      <c r="B122" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D122" t="s">
-        <v>150</v>
-      </c>
-      <c r="E122" s="18"/>
-      <c r="F122" s="15"/>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="3"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="15"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="3"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="15"/>
-    </row>
-    <row r="125" spans="1:6" ht="18.75">
-      <c r="A125" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C125"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C126"/>
-    </row>
-    <row r="127" spans="1:6" ht="30">
-      <c r="A127" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C127"/>
-    </row>
-    <row r="128" spans="1:6" ht="30">
-      <c r="A128" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C128"/>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="B129"/>
-      <c r="C129"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130"/>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="D129" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E129" s="21"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="19"/>
+      <c r="B130" t="s">
+        <v>289</v>
+      </c>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+    </row>
+    <row r="131" spans="1:5">
       <c r="B131"/>
-      <c r="C131"/>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="E131" s="21"/>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="19" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="B132" t="s">
-        <v>257</v>
-      </c>
-      <c r="C132" t="s">
-        <v>259</v>
-      </c>
-      <c r="D132" s="18" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>292</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="E132" s="21"/>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="19"/>
       <c r="B133" t="s">
-        <v>258</v>
-      </c>
-      <c r="C133" t="s">
-        <v>260</v>
-      </c>
-      <c r="D133" s="18"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-    </row>
-    <row r="134" spans="1:6">
+        <v>293</v>
+      </c>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+    </row>
+    <row r="134" spans="1:5">
       <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="B135" t="s">
-        <v>262</v>
-      </c>
-      <c r="C135" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D135" s="18"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="19"/>
-      <c r="B136" t="s">
-        <v>263</v>
-      </c>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="B137"/>
-      <c r="C137"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="B138" t="s">
-        <v>266</v>
-      </c>
-      <c r="C138" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="D138" s="18"/>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="19"/>
-      <c r="B139" t="s">
-        <v>267</v>
-      </c>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-    </row>
-    <row r="140" spans="1:6">
+    </row>
+    <row r="135" spans="1:5">
+      <c r="B135"/>
+    </row>
+    <row r="136" spans="1:5" ht="18.75">
+      <c r="A136" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="30">
+      <c r="A138" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="18.75">
       <c r="B140"/>
-      <c r="C140"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="15"/>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="B141" t="s">
-        <v>270</v>
-      </c>
-      <c r="C141" t="s">
-        <v>272</v>
-      </c>
-      <c r="D141" s="18"/>
-      <c r="E141" s="15"/>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="19"/>
-      <c r="B142" t="s">
-        <v>271</v>
-      </c>
-      <c r="C142" t="s">
-        <v>273</v>
-      </c>
-      <c r="D142" s="18"/>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1"/>
-      <c r="B143"/>
-      <c r="C143"/>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="145" spans="1:7" ht="18.75">
-      <c r="A145" s="11" t="s">
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="B142"/>
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B143" t="s">
+        <v>300</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="19"/>
+      <c r="B144" t="s">
+        <v>301</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="B145"/>
+      <c r="C145" s="1"/>
+      <c r="E145" s="21"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B146" t="s">
+        <v>304</v>
+      </c>
+      <c r="D146" t="s">
+        <v>305</v>
+      </c>
+      <c r="E146" s="21"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="19"/>
+      <c r="B147" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" t="s">
+        <v>286</v>
+      </c>
+      <c r="E147" s="21"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="B148"/>
+      <c r="E148" s="21"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B149" t="s">
+        <v>307</v>
+      </c>
+      <c r="D149" t="s">
+        <v>35</v>
+      </c>
+      <c r="E149" s="21"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="19"/>
+      <c r="B150" t="s">
+        <v>308</v>
+      </c>
+      <c r="D150" t="s">
+        <v>309</v>
+      </c>
+      <c r="E150" s="21"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="B151"/>
+      <c r="E151" s="21"/>
+    </row>
+    <row r="152" spans="1:5" ht="30">
+      <c r="A152" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E152" s="21"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="19"/>
+      <c r="B153" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E153" s="21"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="B154"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="B155"/>
+    </row>
+    <row r="156" spans="1:5" ht="18.75">
+      <c r="A156" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B156" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="1:5" ht="30">
+      <c r="A158" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="B160"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="B162"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" t="s">
+        <v>320</v>
+      </c>
+      <c r="D163" s="21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="19"/>
+      <c r="B164" t="s">
+        <v>301</v>
+      </c>
+      <c r="D164" s="21"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="B165"/>
+      <c r="E165" s="21"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B166" t="s">
+        <v>322</v>
+      </c>
+      <c r="D166" t="s">
+        <v>305</v>
+      </c>
+      <c r="E166" s="21"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="19"/>
+      <c r="B167" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" t="s">
+        <v>286</v>
+      </c>
+      <c r="E167" s="21"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="B168"/>
+      <c r="E168" s="21"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B169" t="s">
+        <v>307</v>
+      </c>
+      <c r="D169" t="s">
+        <v>35</v>
+      </c>
+      <c r="E169" s="21"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="19"/>
+      <c r="B170" t="s">
+        <v>308</v>
+      </c>
+      <c r="D170" t="s">
+        <v>309</v>
+      </c>
+      <c r="E170" s="21"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="B171"/>
+      <c r="E171" s="21"/>
+    </row>
+    <row r="172" spans="1:5" ht="30">
+      <c r="A172" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E172" s="21"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="19"/>
+      <c r="B173" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E173" s="21"/>
+    </row>
+    <row r="174" spans="1:5" ht="18.75">
+      <c r="B174"/>
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="B175"/>
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="1:5" ht="18.75">
+      <c r="A176" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C177" s="2"/>
+    </row>
+    <row r="178" spans="1:5" ht="30">
+      <c r="A178" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="30">
+      <c r="A179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="B180"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="B182"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="B183" t="s">
+        <v>328</v>
+      </c>
+      <c r="D183" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="19"/>
+      <c r="B184" t="s">
+        <v>301</v>
+      </c>
+      <c r="D184" s="21"/>
+      <c r="E184" s="21"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="B185"/>
+      <c r="E185" s="21"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B186" t="s">
+        <v>322</v>
+      </c>
+      <c r="D186" t="s">
+        <v>305</v>
+      </c>
+      <c r="E186" s="21"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="19"/>
+      <c r="B187" t="s">
+        <v>20</v>
+      </c>
+      <c r="D187" t="s">
+        <v>286</v>
+      </c>
+      <c r="E187" s="21"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="B188"/>
+      <c r="E188" s="21"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B189" t="s">
+        <v>307</v>
+      </c>
+      <c r="D189" t="s">
+        <v>35</v>
+      </c>
+      <c r="E189" s="21"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="19"/>
+      <c r="B190" t="s">
+        <v>308</v>
+      </c>
+      <c r="D190" t="s">
+        <v>309</v>
+      </c>
+      <c r="E190" s="21"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="B191"/>
+      <c r="E191" s="21"/>
+    </row>
+    <row r="192" spans="1:5" ht="30">
+      <c r="A192" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E192" s="21"/>
+    </row>
+    <row r="193" spans="1:5" ht="18.75">
+      <c r="A193" s="19"/>
+      <c r="B193" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C193" s="9"/>
+      <c r="D193" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="18.75">
+      <c r="A195" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="13" t="s">
+      <c r="C195" s="9"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="B196" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="1:7" ht="30">
-      <c r="A147" s="1" t="s">
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="1:5" ht="30">
+      <c r="A197" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B197" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C147" s="2"/>
-    </row>
-    <row r="148" spans="1:7" ht="30">
-      <c r="A148" s="1" t="s">
+      <c r="C197" s="2"/>
+    </row>
+    <row r="198" spans="1:5" ht="30">
+      <c r="A198" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B198" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C148" s="2"/>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="1"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="F149" s="15"/>
-      <c r="G149" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="1" t="s">
+      <c r="C198" s="2"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C150" s="1"/>
-      <c r="F150" s="15"/>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="F151" s="15"/>
-    </row>
-    <row r="152" spans="1:7" ht="30">
-      <c r="A152" s="20" t="s">
+      <c r="C200" s="1"/>
+    </row>
+    <row r="202" spans="1:5" ht="30">
+      <c r="A202" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B202" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="5" t="s">
+      <c r="C202" s="2"/>
+      <c r="D202" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E152" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="F152" s="15"/>
-    </row>
-    <row r="153" spans="1:7" ht="30">
-      <c r="A153" s="20"/>
-      <c r="B153" s="2" t="s">
+      <c r="E202" s="21"/>
+    </row>
+    <row r="203" spans="1:5" ht="30">
+      <c r="A203" s="25"/>
+      <c r="B203" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C153" s="2"/>
-      <c r="D153" t="s">
+      <c r="C203" s="2"/>
+      <c r="D203" t="s">
         <v>151</v>
       </c>
-      <c r="E153" s="18"/>
-      <c r="F153" s="15"/>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="E154" s="18"/>
-      <c r="F154" s="15"/>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="20" t="s">
+      <c r="E203" s="21"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="E204" s="21"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B205" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D155" s="18" t="s">
+      <c r="D205" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="E155" s="18"/>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="20"/>
-      <c r="B156" s="8" t="s">
+      <c r="E205" s="21"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="25"/>
+      <c r="B206" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D156" s="22"/>
-      <c r="E156" s="18"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="20"/>
-      <c r="B157" s="8" t="s">
+      <c r="D206" s="23"/>
+      <c r="E206" s="21"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="25"/>
+      <c r="B207" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D157" s="21" t="s">
+      <c r="D207" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="E157" s="18"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="20"/>
-      <c r="B158" s="8" t="s">
+      <c r="E207" s="21"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="25"/>
+      <c r="B208" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D158" s="21"/>
-      <c r="E158" s="18"/>
-    </row>
-    <row r="160" spans="1:7" ht="18.75">
-      <c r="A160" s="11" t="s">
+      <c r="D208" s="20"/>
+      <c r="E208" s="21"/>
+    </row>
+    <row r="210" spans="1:5" ht="18.75">
+      <c r="A210" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B160" s="12" t="s">
+      <c r="B210" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="13" t="s">
+      <c r="C210" s="9"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B161" s="13" t="s">
+      <c r="B211" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="1:6" ht="30">
-      <c r="A162" s="1" t="s">
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="1:5" ht="30">
+      <c r="A212" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B212" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C162" s="2"/>
-    </row>
-    <row r="163" spans="1:6" ht="30">
-      <c r="A163" s="1" t="s">
+      <c r="C212" s="2"/>
+    </row>
+    <row r="213" spans="1:5" ht="30">
+      <c r="A213" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B213" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C163" s="2"/>
-      <c r="F163" s="15"/>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="F164" s="15"/>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="1" t="s">
+      <c r="C213" s="2"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C165" s="1"/>
-    </row>
-    <row r="167" spans="1:6" ht="30">
-      <c r="A167" s="20" t="s">
+      <c r="C215" s="1"/>
+    </row>
+    <row r="217" spans="1:5" ht="30">
+      <c r="A217" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B217" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C167" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D167" s="5" t="s">
+      <c r="C217" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D217" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E167" s="18" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="20"/>
-      <c r="B168" s="8" t="s">
+      <c r="E217" s="21"/>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="25"/>
+      <c r="B218" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D218" t="s">
         <v>156</v>
       </c>
-      <c r="E168" s="18"/>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="20"/>
-      <c r="B169" s="8" t="s">
+      <c r="E218" s="21"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="25"/>
+      <c r="B219" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D219" t="s">
         <v>157</v>
       </c>
-      <c r="E169" s="18"/>
-      <c r="F169" s="16"/>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="F170" s="16"/>
-    </row>
-    <row r="171" spans="1:6" ht="30">
-      <c r="A171" s="20" t="s">
+      <c r="E219" s="21"/>
+    </row>
+    <row r="221" spans="1:5" ht="30">
+      <c r="A221" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B221" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C171" s="2"/>
-      <c r="D171" s="5" t="s">
+      <c r="C221" s="2"/>
+      <c r="D221" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E171" s="18" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172" s="20"/>
-      <c r="B172" s="2" t="s">
+      <c r="E221" s="21"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="25"/>
+      <c r="B222" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C172" s="2"/>
-      <c r="D172" t="s">
+      <c r="C222" s="2"/>
+      <c r="D222" t="s">
         <v>159</v>
       </c>
-      <c r="E172" s="18"/>
-      <c r="F172" s="15"/>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="F173" s="15"/>
-    </row>
-    <row r="174" spans="1:6" ht="18.75">
-      <c r="A174" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B174" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B175" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C175" s="1"/>
-    </row>
-    <row r="176" spans="1:6" ht="30">
-      <c r="A176" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C176" s="2"/>
-    </row>
-    <row r="177" spans="1:6" ht="30">
-      <c r="A177" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C177" s="2"/>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="B178"/>
-      <c r="C178" s="2"/>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="B180"/>
-      <c r="C180" s="1"/>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="B181" t="s">
-        <v>279</v>
-      </c>
-      <c r="C181" s="4"/>
-      <c r="D181" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="E181" s="18" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182" s="19"/>
-      <c r="B182" t="s">
-        <v>351</v>
-      </c>
-      <c r="C182" s="4"/>
-      <c r="D182" s="18"/>
-      <c r="E182" s="18"/>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="B183"/>
-      <c r="C183" s="4"/>
-    </row>
-    <row r="184" spans="1:6" ht="30">
-      <c r="A184" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C184" s="6"/>
-      <c r="D184" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E184" s="23" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185" s="19"/>
-      <c r="B185" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C185" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E185" s="23"/>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="B186"/>
-      <c r="C186" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="30">
-      <c r="A187" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C187" s="4"/>
-      <c r="D187" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F187" s="15"/>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188" s="19"/>
-      <c r="B188" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C188" s="4"/>
-      <c r="D188" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F188" s="15"/>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="B189"/>
-      <c r="C189" s="4"/>
-      <c r="F189" s="15"/>
-    </row>
-    <row r="190" spans="1:6" ht="30">
-      <c r="A190" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C190" s="4"/>
-      <c r="D190" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E190" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="F190" s="15"/>
-    </row>
-    <row r="191" spans="1:6" ht="30">
-      <c r="A191" s="19"/>
-      <c r="B191" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C191" s="4"/>
-      <c r="D191" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E191" s="18"/>
-      <c r="F191" s="15"/>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192" s="1"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="2"/>
-      <c r="F192" s="15"/>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="B193" t="s">
-        <v>368</v>
-      </c>
-      <c r="C193" s="4"/>
-      <c r="D193" t="s">
-        <v>370</v>
-      </c>
-      <c r="E193" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="F193" s="15"/>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="19"/>
-      <c r="B194" t="s">
-        <v>369</v>
-      </c>
-      <c r="C194" s="4"/>
-      <c r="D194" t="s">
-        <v>371</v>
-      </c>
-      <c r="E194" s="18"/>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="B195"/>
-      <c r="C195" s="2"/>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="B196"/>
-      <c r="C196" s="2"/>
-    </row>
-    <row r="197" spans="1:6" ht="18.75">
-      <c r="A197" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B197" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="18.75">
-      <c r="A198" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B198" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C198" s="9"/>
-    </row>
-    <row r="199" spans="1:6" ht="30">
-      <c r="A199" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C199" s="1"/>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C200" s="2"/>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="B201"/>
-      <c r="C201" s="2"/>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="B203"/>
-      <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="B204" t="s">
-        <v>279</v>
-      </c>
-      <c r="D204" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="E204" s="18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205" s="19"/>
-      <c r="B205" t="s">
-        <v>280</v>
-      </c>
-      <c r="D205" s="18"/>
-      <c r="E205" s="18"/>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="B206"/>
-      <c r="E206" s="18"/>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="B207" t="s">
-        <v>283</v>
-      </c>
-      <c r="D207" t="s">
-        <v>285</v>
-      </c>
-      <c r="E207" s="18"/>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208" s="19"/>
-      <c r="B208" t="s">
-        <v>284</v>
-      </c>
-      <c r="D208" t="s">
-        <v>286</v>
-      </c>
-      <c r="E208" s="18"/>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="B209"/>
-      <c r="C209" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="E209" s="18"/>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="B210" t="s">
-        <v>288</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D210" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="E210" s="18"/>
-      <c r="F210" s="15"/>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="19"/>
-      <c r="B211" t="s">
-        <v>289</v>
-      </c>
-      <c r="D211" s="18"/>
-      <c r="E211" s="18"/>
-      <c r="F211" s="15"/>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="B212"/>
-      <c r="E212" s="18"/>
-      <c r="F212" s="15"/>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="B213" t="s">
-        <v>292</v>
-      </c>
-      <c r="D213" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="E213" s="18"/>
-      <c r="F213" s="15"/>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="19"/>
-      <c r="B214" t="s">
-        <v>293</v>
-      </c>
-      <c r="D214" s="18"/>
-      <c r="E214" s="18"/>
-      <c r="F214" s="15"/>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="B215"/>
-      <c r="F215" s="15"/>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="B216"/>
-    </row>
-    <row r="217" spans="1:6" ht="18.75">
-      <c r="A217" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B217" s="12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B218" s="13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="30">
-      <c r="A219" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="18.75">
-      <c r="B221"/>
-      <c r="C221" s="9"/>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C222" s="1"/>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="B223"/>
-      <c r="C223" s="2"/>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="B224" t="s">
-        <v>300</v>
-      </c>
-      <c r="C224" s="2"/>
-      <c r="D224" s="18" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="19"/>
-      <c r="B225" t="s">
-        <v>301</v>
-      </c>
-      <c r="C225" s="2"/>
-      <c r="D225" s="18"/>
-      <c r="E225" s="18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="B226"/>
-      <c r="C226" s="1"/>
-      <c r="E226" s="18"/>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="B227" t="s">
-        <v>304</v>
-      </c>
-      <c r="D227" t="s">
-        <v>305</v>
-      </c>
-      <c r="E227" s="18"/>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="19"/>
-      <c r="B228" t="s">
-        <v>20</v>
-      </c>
-      <c r="D228" t="s">
-        <v>286</v>
-      </c>
-      <c r="E228" s="18"/>
-      <c r="F228" s="15"/>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="B229"/>
-      <c r="E229" s="18"/>
-      <c r="F229" s="15"/>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="B230" t="s">
-        <v>307</v>
-      </c>
-      <c r="D230" t="s">
-        <v>35</v>
-      </c>
-      <c r="E230" s="18"/>
-      <c r="F230" s="15"/>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="19"/>
-      <c r="B231" t="s">
-        <v>308</v>
-      </c>
-      <c r="D231" t="s">
-        <v>309</v>
-      </c>
-      <c r="E231" s="18"/>
-      <c r="F231" s="15"/>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="B232"/>
-      <c r="E232" s="18"/>
-      <c r="F232" s="15"/>
-    </row>
-    <row r="233" spans="1:6" ht="30">
-      <c r="A233" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E233" s="18"/>
-      <c r="F233" s="15"/>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="19"/>
-      <c r="B234" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E234" s="18"/>
-      <c r="F234" s="15"/>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="B235"/>
-      <c r="F235" s="15"/>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="B236"/>
-    </row>
-    <row r="237" spans="1:6" ht="18.75">
-      <c r="A237" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B237" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="C237" s="9"/>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B238" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="C238" s="1"/>
-    </row>
-    <row r="239" spans="1:6" ht="30">
-      <c r="A239" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C239" s="2"/>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C240" s="2"/>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="B241"/>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C242" s="1"/>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="B243"/>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="B244" t="s">
-        <v>320</v>
-      </c>
-      <c r="D244" s="18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245" s="19"/>
-      <c r="B245" t="s">
-        <v>301</v>
-      </c>
-      <c r="D245" s="18"/>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="B246"/>
-      <c r="E246" s="18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="B247" t="s">
-        <v>322</v>
-      </c>
-      <c r="D247" t="s">
-        <v>305</v>
-      </c>
-      <c r="E247" s="18"/>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" s="19"/>
-      <c r="B248" t="s">
-        <v>20</v>
-      </c>
-      <c r="D248" t="s">
-        <v>286</v>
-      </c>
-      <c r="E248" s="18"/>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="B249"/>
-      <c r="E249" s="18"/>
-      <c r="F249" s="15"/>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="B250" t="s">
-        <v>307</v>
-      </c>
-      <c r="D250" t="s">
-        <v>35</v>
-      </c>
-      <c r="E250" s="18"/>
-      <c r="F250" s="15"/>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251" s="19"/>
-      <c r="B251" t="s">
-        <v>308</v>
-      </c>
-      <c r="D251" t="s">
-        <v>309</v>
-      </c>
-      <c r="E251" s="18"/>
-      <c r="F251" s="15"/>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="B252"/>
-      <c r="E252" s="18"/>
-      <c r="F252" s="15"/>
-    </row>
-    <row r="253" spans="1:6" ht="30">
-      <c r="A253" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E253" s="18"/>
-      <c r="F253" s="15"/>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254" s="19"/>
-      <c r="B254" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E254" s="18"/>
-      <c r="F254" s="15"/>
-    </row>
-    <row r="255" spans="1:6" ht="18.75">
-      <c r="B255"/>
-      <c r="C255" s="9"/>
-      <c r="F255" s="15"/>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="B256"/>
-      <c r="C256" s="1"/>
-    </row>
-    <row r="257" spans="1:6" ht="18.75">
-      <c r="A257" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B257" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="C257" s="2"/>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B258" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C258" s="2"/>
-    </row>
-    <row r="259" spans="1:6" ht="30">
-      <c r="A259" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" ht="30">
-      <c r="A260" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C260" s="1"/>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="B261"/>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="A262" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="B263"/>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="A264" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="B264" t="s">
-        <v>328</v>
-      </c>
-      <c r="D264" s="18" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
-      <c r="A265" s="19"/>
-      <c r="B265" t="s">
-        <v>301</v>
-      </c>
-      <c r="D265" s="18"/>
-      <c r="E265" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="F265" s="15"/>
-    </row>
-    <row r="266" spans="1:6">
-      <c r="B266"/>
-      <c r="E266" s="18"/>
-      <c r="F266" s="15"/>
-    </row>
-    <row r="267" spans="1:6">
-      <c r="A267" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="B267" t="s">
-        <v>322</v>
-      </c>
-      <c r="D267" t="s">
-        <v>305</v>
-      </c>
-      <c r="E267" s="18"/>
-      <c r="F267" s="15"/>
-    </row>
-    <row r="268" spans="1:6">
-      <c r="A268" s="19"/>
-      <c r="B268" t="s">
-        <v>20</v>
-      </c>
-      <c r="D268" t="s">
-        <v>286</v>
-      </c>
-      <c r="E268" s="18"/>
-      <c r="F268" s="15"/>
-    </row>
-    <row r="269" spans="1:6">
-      <c r="B269"/>
-      <c r="E269" s="18"/>
-      <c r="F269" s="15"/>
-    </row>
-    <row r="270" spans="1:6">
-      <c r="A270" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="B270" t="s">
-        <v>307</v>
-      </c>
-      <c r="D270" t="s">
-        <v>35</v>
-      </c>
-      <c r="E270" s="18"/>
-      <c r="F270" s="15"/>
-    </row>
-    <row r="271" spans="1:6">
-      <c r="A271" s="19"/>
-      <c r="B271" t="s">
-        <v>308</v>
-      </c>
-      <c r="D271" t="s">
-        <v>309</v>
-      </c>
-      <c r="E271" s="18"/>
-      <c r="F271" s="15"/>
-    </row>
-    <row r="272" spans="1:6">
-      <c r="B272"/>
-      <c r="E272" s="18"/>
-    </row>
-    <row r="273" spans="1:7" ht="30">
-      <c r="A273" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E273" s="18"/>
-    </row>
-    <row r="274" spans="1:7" ht="18.75">
-      <c r="A274" s="19"/>
-      <c r="B274" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C274" s="9"/>
-      <c r="D274" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" ht="18.75">
-      <c r="A276" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B276" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C276" s="9"/>
-    </row>
-    <row r="277" spans="1:7">
-      <c r="A277" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B277" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C277" s="1"/>
-    </row>
-    <row r="278" spans="1:7" ht="30">
-      <c r="A278" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C278" s="2"/>
-    </row>
-    <row r="279" spans="1:7" ht="30">
-      <c r="A279" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C279" s="2"/>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280" s="1"/>
-      <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
-      <c r="F280" s="15"/>
-      <c r="G280" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C281" s="1"/>
-      <c r="F281" s="15"/>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="F282" s="15"/>
-    </row>
-    <row r="283" spans="1:7" ht="30">
-      <c r="A283" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C283" s="2"/>
-      <c r="D283" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E283" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="F283" s="15"/>
-    </row>
-    <row r="284" spans="1:7" ht="30">
-      <c r="A284" s="20"/>
-      <c r="B284" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C284" s="2"/>
-      <c r="D284" t="s">
-        <v>151</v>
-      </c>
-      <c r="E284" s="18"/>
-      <c r="F284" s="15"/>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="E285" s="18"/>
-      <c r="F285" s="15"/>
-    </row>
-    <row r="286" spans="1:7">
-      <c r="A286" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B286" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D286" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="E286" s="18"/>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" s="20"/>
-      <c r="B287" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D287" s="22"/>
-      <c r="E287" s="18"/>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288" s="20"/>
-      <c r="B288" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D288" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="E288" s="18"/>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="A289" s="20"/>
-      <c r="B289" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D289" s="21"/>
-      <c r="E289" s="18"/>
-    </row>
-    <row r="291" spans="1:5" ht="18.75">
-      <c r="A291" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B291" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C291" s="9"/>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="A292" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B292" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C292" s="1"/>
-    </row>
-    <row r="293" spans="1:5" ht="30">
-      <c r="A293" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C293" s="2"/>
-    </row>
-    <row r="294" spans="1:5" ht="30">
-      <c r="A294" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C294" s="2"/>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="A296" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C296" s="1"/>
-    </row>
-    <row r="298" spans="1:5" ht="30">
-      <c r="A298" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B298" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C298" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D298" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E298" s="18" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="A299" s="20"/>
-      <c r="B299" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D299" t="s">
-        <v>156</v>
-      </c>
-      <c r="E299" s="18"/>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="A300" s="20"/>
-      <c r="B300" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D300" t="s">
-        <v>157</v>
-      </c>
-      <c r="E300" s="18"/>
-    </row>
-    <row r="302" spans="1:5" ht="30">
-      <c r="A302" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C302" s="2"/>
-      <c r="D302" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E302" s="18" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
-      <c r="A303" s="20"/>
-      <c r="B303" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C303" s="2"/>
-      <c r="D303" t="s">
-        <v>159</v>
-      </c>
-      <c r="E303" s="18"/>
+      <c r="E222" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="E33:E46"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="E56:E63"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E100"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="E109:E122"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="A119:A122"/>
+  <mergeCells count="69">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D51:D61"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="E28:E41"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="E71:E77"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E133"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="D129:D130"/>
     <mergeCell ref="A132:A133"/>
-    <mergeCell ref="D132:D142"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E144:E153"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A149:A150"/>
     <mergeCell ref="A152:A153"/>
-    <mergeCell ref="E152:E158"/>
-    <mergeCell ref="A155:A158"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E214"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="D224:D225"/>
-    <mergeCell ref="E225:E234"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="E246:E254"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="A264:A265"/>
-    <mergeCell ref="D264:D265"/>
-    <mergeCell ref="E265:E273"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="A270:A271"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="A302:A303"/>
-    <mergeCell ref="E302:E303"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="E283:E289"/>
-    <mergeCell ref="A286:A289"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="D288:D289"/>
-    <mergeCell ref="A298:A300"/>
-    <mergeCell ref="E298:E300"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="E165:E173"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E184:E192"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="E202:E208"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="A217:A219"/>
+    <mergeCell ref="E217:E219"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/Week_7/reTesting.xlsx
+++ b/Week_7/reTesting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\QA\Week_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE76C0CD-8AD4-44A5-9AE6-0ACB85DD66C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EF4320-A143-43FE-B2F2-80B63286F871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{40891742-B03F-4153-8FC7-03D28505703E}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="396">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -939,9 +939,6 @@
     <t>Refresh the product page</t>
   </si>
   <si>
-    <t>heck if the submitted review appears under product reviews</t>
-  </si>
-  <si>
     <t>Submitted review is displayed under product reviews</t>
   </si>
   <si>
@@ -1210,6 +1207,57 @@
   </si>
   <si>
     <t>search functionality is not implemented</t>
+  </si>
+  <si>
+    <t>Checkout page loads with error</t>
+  </si>
+  <si>
+    <t>Account is not locked after a set number of failed login attempts</t>
+  </si>
+  <si>
+    <t>User is not notified of account lock</t>
+  </si>
+  <si>
+    <t>after 500 users per second were generated, DDoS protection was enabled on the site</t>
+  </si>
+  <si>
+    <t>Product information section is not visible on the page. the top of the site overlaps the product page. Product description opens when you scroll down the page</t>
+  </si>
+  <si>
+    <t>5 products were selectively viewed and there was no video anywhere</t>
+  </si>
+  <si>
+    <t>function not implemented</t>
+  </si>
+  <si>
+    <t>Submitted review is displayed under product reviews. The submitted review appears below the product reviews. The photo displays normally and the video plays correctly</t>
+  </si>
+  <si>
+    <t>Some video with porno and text with inappropriate content</t>
+  </si>
+  <si>
+    <t>5. Ability to correct and delete reviews</t>
+  </si>
+  <si>
+    <t>Сheck if the submitted review appears under product reviews</t>
+  </si>
+  <si>
+    <t>Find your review and check if there is an Edit and Delete button</t>
+  </si>
+  <si>
+    <t>Try to edit review. After editing - delete</t>
+  </si>
+  <si>
+    <t>Buttons are displayed correctly and clickable</t>
+  </si>
+  <si>
+    <t>The review is edited and then deleted</t>
+  </si>
+  <si>
+    <t>The buttons are in the drop-down list, are displayed correctly and are clickable</t>
+  </si>
+  <si>
+    <t>Non-warranty service sign-up form is not visible on the page</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,7 +1355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1376,7 +1424,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1384,6 +1431,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1792,7 +1844,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76:G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1801,7 +1853,7 @@
     <col min="2" max="3" width="51.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="55.140625" customWidth="1"/>
     <col min="5" max="5" width="43.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="27" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
@@ -1816,7 +1868,7 @@
       <c r="E1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>125</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -1935,7 +1987,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1944,7 +1996,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1957,7 +2009,7 @@
         <v>36</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F15" s="15"/>
     </row>
@@ -2156,7 +2208,7 @@
         <v>21</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E37" s="2"/>
     </row>
@@ -2166,7 +2218,7 @@
         <v>20</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -2179,11 +2231,11 @@
         <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30">
@@ -2195,7 +2247,7 @@
         <v>23</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="21"/>
@@ -2488,10 +2540,10 @@
         <v>146</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2652,10 +2704,10 @@
         <v>167</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E93" s="21" t="s">
         <v>330</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>331</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" t="e" vm="1">
@@ -2672,7 +2724,7 @@
       <c r="E94" s="21"/>
       <c r="F94" s="16"/>
       <c r="G94" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2692,7 +2744,7 @@
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F96" s="16"/>
     </row>
@@ -2793,7 +2845,7 @@
         <v>184</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E108" t="s">
         <v>184</v>
@@ -2861,7 +2913,7 @@
         <v>193</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E114" s="21" t="s">
         <v>193</v>
@@ -2893,11 +2945,11 @@
       <c r="C117" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D117" s="29" t="s">
+      <c r="D117" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="F117" s="16"/>
     </row>
@@ -2984,7 +3036,7 @@
         <v>205</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F127" s="16"/>
     </row>
@@ -3006,7 +3058,7 @@
       <c r="D129" s="21"/>
       <c r="F129" s="16"/>
       <c r="G129" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3135,7 +3187,7 @@
         <v>223</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3402,11 +3454,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8D4B5D-2F4C-4BCB-8A3F-2BEA1FF7CC10}">
-  <dimension ref="A1:G222"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3415,7 +3467,7 @@
     <col min="2" max="3" width="51.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="5" width="43.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="27" customWidth="1"/>
     <col min="7" max="7" width="42.5703125" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
@@ -3430,7 +3482,7 @@
       <c r="E1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>125</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -3499,11 +3551,11 @@
         <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="39.75" customHeight="1">
@@ -3515,7 +3567,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F11" s="15"/>
     </row>
@@ -3562,7 +3614,7 @@
         <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F16" s="15"/>
     </row>
@@ -3635,7 +3687,10 @@
       <c r="D28" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="21"/>
+      <c r="E28" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="25"/>
@@ -3645,7 +3700,10 @@
       <c r="D29" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="21"/>
+      <c r="E29" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="25"/>
@@ -3654,9 +3712,10 @@
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="E31" s="21"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="25" t="s">
@@ -3668,25 +3727,30 @@
       <c r="D32" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="21"/>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="25"/>
       <c r="B33" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="21"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="25"/>
       <c r="B34" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="21"/>
-    </row>
-    <row r="35" spans="1:5" ht="30">
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:6" ht="30">
       <c r="A35" s="25"/>
       <c r="B35" s="8" t="s">
         <v>95</v>
@@ -3695,8 +3759,9 @@
         <v>148</v>
       </c>
       <c r="E35" s="21"/>
-    </row>
-    <row r="36" spans="1:5" ht="30">
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" ht="30">
       <c r="A36" s="25"/>
       <c r="B36" s="8" t="s">
         <v>35</v>
@@ -3705,11 +3770,13 @@
         <v>129</v>
       </c>
       <c r="E36" s="21"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="E37" s="21"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="25" t="s">
         <v>96</v>
       </c>
@@ -3717,8 +3784,9 @@
         <v>97</v>
       </c>
       <c r="E38" s="21"/>
-    </row>
-    <row r="39" spans="1:5" ht="30">
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="30">
       <c r="A39" s="25"/>
       <c r="B39" s="8" t="s">
         <v>98</v>
@@ -3727,8 +3795,9 @@
         <v>149</v>
       </c>
       <c r="E39" s="21"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="25"/>
       <c r="B40" s="8" t="s">
         <v>26</v>
@@ -3737,8 +3806,9 @@
         <v>99</v>
       </c>
       <c r="E40" s="21"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="25"/>
       <c r="B41" s="8" t="s">
         <v>99</v>
@@ -3747,16 +3817,17 @@
         <v>150</v>
       </c>
       <c r="E41" s="21"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="3"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="3"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="18.75">
+    <row r="44" spans="1:6" ht="18.75">
       <c r="A44" s="11" t="s">
         <v>11</v>
       </c>
@@ -3765,7 +3836,7 @@
       </c>
       <c r="C44"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="13" t="s">
         <v>0</v>
       </c>
@@ -3774,7 +3845,7 @@
       </c>
       <c r="C45"/>
     </row>
-    <row r="46" spans="1:5" ht="30">
+    <row r="46" spans="1:6" ht="30">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -3783,7 +3854,7 @@
       </c>
       <c r="C46"/>
     </row>
-    <row r="47" spans="1:5" ht="30">
+    <row r="47" spans="1:6" ht="30">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -3792,11 +3863,11 @@
       </c>
       <c r="C47"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="B48"/>
       <c r="C48"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -3805,125 +3876,136 @@
       </c>
       <c r="C49"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="B50"/>
       <c r="C50"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" s="19" t="s">
         <v>256</v>
       </c>
       <c r="B51" t="s">
         <v>257</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51"/>
+      <c r="D51" t="s">
         <v>259</v>
       </c>
-      <c r="D51" s="21"/>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="E51" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="19"/>
       <c r="B52" t="s">
         <v>258</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52"/>
+      <c r="D52" t="s">
         <v>260</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="26"/>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="E52" s="21"/>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="B53"/>
       <c r="C53"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="26"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="E53" s="21"/>
+      <c r="F53" s="15"/>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="19" t="s">
         <v>261</v>
       </c>
       <c r="B54" t="s">
         <v>262</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="21"/>
+      <c r="D54" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="26"/>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="E54" s="21"/>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="19"/>
       <c r="B55" t="s">
         <v>263</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
-      <c r="E55" s="26"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="E55" s="21"/>
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" spans="1:6">
       <c r="B56"/>
       <c r="C56"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="26"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="E56" s="21"/>
+      <c r="F56" s="15"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1">
       <c r="A57" s="19" t="s">
         <v>265</v>
       </c>
       <c r="B57" t="s">
         <v>266</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="21"/>
+      <c r="D57" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="26"/>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="E57" s="21"/>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="19"/>
       <c r="B58" t="s">
         <v>267</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
-      <c r="E58" s="26"/>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="E58" s="21"/>
+      <c r="F58" s="15"/>
+    </row>
+    <row r="59" spans="1:6">
       <c r="B59"/>
       <c r="C59"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="26"/>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="E59" s="21"/>
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="19" t="s">
         <v>269</v>
       </c>
       <c r="B60" t="s">
         <v>270</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60"/>
+      <c r="D60" t="s">
         <v>272</v>
       </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="26"/>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="E60" s="21"/>
+      <c r="F60" s="15"/>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="19"/>
       <c r="B61" t="s">
         <v>271</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61"/>
+      <c r="D61" t="s">
         <v>273</v>
       </c>
-      <c r="D61" s="21"/>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="E61" s="21"/>
+      <c r="F61" s="15"/>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1"/>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="64" spans="1:5" ht="18.75">
+    <row r="64" spans="1:6" ht="18.75">
       <c r="A64" s="11" t="s">
         <v>11</v>
       </c>
@@ -3932,7 +4014,7 @@
       </c>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" s="13" t="s">
         <v>0</v>
       </c>
@@ -3941,7 +4023,7 @@
       </c>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:5" ht="30">
+    <row r="66" spans="1:6" ht="30">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
@@ -3950,7 +4032,7 @@
       </c>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:5" ht="30">
+    <row r="67" spans="1:6" ht="30">
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
@@ -3959,12 +4041,12 @@
       </c>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -3973,7 +4055,7 @@
       </c>
       <c r="C69" s="1"/>
     </row>
-    <row r="71" spans="1:5" ht="30">
+    <row r="71" spans="1:6" ht="30">
       <c r="A71" s="25" t="s">
         <v>104</v>
       </c>
@@ -3984,9 +4066,12 @@
       <c r="D71" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E71" s="21"/>
-    </row>
-    <row r="72" spans="1:5" ht="26.25" customHeight="1">
+      <c r="E71" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F71" s="15"/>
+    </row>
+    <row r="72" spans="1:6" ht="26.25" customHeight="1">
       <c r="A72" s="25"/>
       <c r="B72" s="2" t="s">
         <v>106</v>
@@ -3995,12 +4080,16 @@
       <c r="D72" t="s">
         <v>151</v>
       </c>
-      <c r="E72" s="21"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="E73" s="21"/>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="E72" t="s">
+        <v>381</v>
+      </c>
+      <c r="F72" s="15"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="E73" s="2"/>
+      <c r="F73" s="15"/>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="25" t="s">
         <v>107</v>
       </c>
@@ -4010,17 +4099,19 @@
       <c r="D74" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="E74" s="21"/>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="E74" s="2"/>
+      <c r="F74" s="15"/>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="25"/>
       <c r="B75" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D75" s="23"/>
-      <c r="E75" s="21"/>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="E75" s="2"/>
+      <c r="F75" s="15"/>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="25"/>
       <c r="B76" s="8" t="s">
         <v>110</v>
@@ -4028,17 +4119,19 @@
       <c r="D76" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="E76" s="21"/>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="E76" s="2"/>
+      <c r="F76" s="15"/>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="25"/>
       <c r="B77" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D77" s="20"/>
-      <c r="E77" s="21"/>
-    </row>
-    <row r="79" spans="1:5" ht="18.75">
+      <c r="E77" s="2"/>
+      <c r="F77" s="15"/>
+    </row>
+    <row r="79" spans="1:6" ht="18.75">
       <c r="A79" s="11" t="s">
         <v>11</v>
       </c>
@@ -4047,7 +4140,7 @@
       </c>
       <c r="C79" s="9"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" s="13" t="s">
         <v>0</v>
       </c>
@@ -4056,7 +4149,7 @@
       </c>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:5" ht="30">
+    <row r="81" spans="1:6" ht="30">
       <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
@@ -4065,7 +4158,7 @@
       </c>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="1:5" ht="30">
+    <row r="82" spans="1:6" ht="30">
       <c r="A82" s="1" t="s">
         <v>4</v>
       </c>
@@ -4074,7 +4167,7 @@
       </c>
       <c r="C82" s="2"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>5</v>
       </c>
@@ -4083,7 +4176,7 @@
       </c>
       <c r="C84" s="1"/>
     </row>
-    <row r="86" spans="1:5" ht="30">
+    <row r="86" spans="1:6" ht="30">
       <c r="A86" s="25" t="s">
         <v>116</v>
       </c>
@@ -4091,14 +4184,17 @@
         <v>117</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E86" s="21"/>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="E86" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="F86" s="30"/>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="25"/>
       <c r="B87" s="8" t="s">
         <v>118</v>
@@ -4107,8 +4203,9 @@
         <v>156</v>
       </c>
       <c r="E87" s="21"/>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" s="30"/>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="25"/>
       <c r="B88" s="8" t="s">
         <v>119</v>
@@ -4117,8 +4214,13 @@
         <v>157</v>
       </c>
       <c r="E88" s="21"/>
-    </row>
-    <row r="90" spans="1:5" ht="30">
+      <c r="F88" s="30"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="E89" s="31"/>
+      <c r="F89" s="30"/>
+    </row>
+    <row r="90" spans="1:6" ht="30">
       <c r="A90" s="25" t="s">
         <v>120</v>
       </c>
@@ -4129,9 +4231,10 @@
       <c r="D90" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E90" s="21"/>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="E90" s="31"/>
+      <c r="F90" s="30"/>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="25"/>
       <c r="B91" s="2" t="s">
         <v>122</v>
@@ -4140,18 +4243,22 @@
       <c r="D91" t="s">
         <v>159</v>
       </c>
-      <c r="E91" s="21"/>
-    </row>
-    <row r="93" spans="1:5" ht="18.75">
+      <c r="E91" s="31"/>
+      <c r="F91" s="30"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="F92" s="30"/>
+    </row>
+    <row r="93" spans="1:6" ht="18.75">
       <c r="A93" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C93" s="9"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94" s="13" t="s">
         <v>0</v>
       </c>
@@ -4160,29 +4267,29 @@
       </c>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:5" ht="30">
+    <row r="95" spans="1:6" ht="30">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="1:5" ht="30">
+    <row r="96" spans="1:6" ht="30">
       <c r="A96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="B97"/>
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
@@ -4191,11 +4298,11 @@
       </c>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="B99"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:6">
       <c r="A100" s="19" t="s">
         <v>278</v>
       </c>
@@ -4204,146 +4311,170 @@
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="E100" s="21"/>
-    </row>
-    <row r="101" spans="1:5">
+        <v>342</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="F100" s="16"/>
+    </row>
+    <row r="101" spans="1:6" ht="46.5" customHeight="1">
       <c r="A101" s="19"/>
       <c r="B101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="21"/>
       <c r="E101" s="21"/>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" s="16"/>
+    </row>
+    <row r="102" spans="1:6">
       <c r="B102"/>
       <c r="C102" s="4"/>
-    </row>
-    <row r="103" spans="1:5" ht="30">
+      <c r="F102" s="16"/>
+    </row>
+    <row r="103" spans="1:6" ht="30">
       <c r="A103" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E103" s="24"/>
-    </row>
-    <row r="104" spans="1:5">
+        <v>345</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="F103" s="16"/>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="19"/>
       <c r="B104" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E104" s="24"/>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104" s="16"/>
+    </row>
+    <row r="105" spans="1:6">
       <c r="B105"/>
       <c r="C105" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="30">
+        <v>333</v>
+      </c>
+      <c r="F105" s="16"/>
+    </row>
+    <row r="106" spans="1:6" ht="30">
       <c r="A106" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5">
+        <v>350</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F106" s="16"/>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="19"/>
       <c r="B107" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5">
+        <v>351</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F107" s="16"/>
+    </row>
+    <row r="108" spans="1:6">
       <c r="B108"/>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="1:5" ht="30">
+    <row r="109" spans="1:6" ht="30">
       <c r="A109" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E109" s="21"/>
-    </row>
-    <row r="110" spans="1:5" ht="30">
+        <v>355</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="F109" s="15"/>
+    </row>
+    <row r="110" spans="1:6" ht="30">
       <c r="A110" s="19"/>
       <c r="B110" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E110" s="21"/>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110" s="15"/>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="4"/>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:6">
       <c r="A112" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B112" t="s">
         <v>358</v>
-      </c>
-      <c r="B112" t="s">
-        <v>359</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" t="s">
-        <v>361</v>
-      </c>
-      <c r="E112" s="21"/>
-    </row>
-    <row r="113" spans="1:5">
+        <v>360</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="F112" s="15"/>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="19"/>
       <c r="B113" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E113" s="21"/>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113" s="15"/>
+    </row>
+    <row r="114" spans="1:6">
       <c r="B114"/>
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="B115"/>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="1:5" ht="18.75">
+    <row r="116" spans="1:6" ht="18.75">
       <c r="A116" s="11" t="s">
         <v>11</v>
       </c>
@@ -4351,16 +4482,16 @@
         <v>275</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="18.75">
+    <row r="117" spans="1:6" ht="18.75">
       <c r="A117" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C117" s="9"/>
     </row>
-    <row r="118" spans="1:5" ht="30">
+    <row r="118" spans="1:6" ht="30">
       <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
@@ -4369,7 +4500,7 @@
       </c>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
         <v>4</v>
       </c>
@@ -4378,11 +4509,11 @@
       </c>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:6">
       <c r="B120"/>
       <c r="C120" s="2"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
         <v>5</v>
       </c>
@@ -4390,11 +4521,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:6">
       <c r="B122"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:6">
       <c r="A123" s="19" t="s">
         <v>278</v>
       </c>
@@ -4404,21 +4535,25 @@
       <c r="D123" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E123" s="21"/>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="E123" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="F123" s="16"/>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="19"/>
       <c r="B124" t="s">
         <v>280</v>
       </c>
       <c r="D124" s="21"/>
       <c r="E124" s="21"/>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124" s="16"/>
+    </row>
+    <row r="125" spans="1:6">
       <c r="B125"/>
-      <c r="E125" s="21"/>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="19" t="s">
         <v>282</v>
       </c>
@@ -4428,9 +4563,12 @@
       <c r="D126" t="s">
         <v>285</v>
       </c>
-      <c r="E126" s="21"/>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="E126" t="s">
+        <v>285</v>
+      </c>
+      <c r="F126" s="16"/>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="19"/>
       <c r="B127" t="s">
         <v>284</v>
@@ -4438,16 +4576,17 @@
       <c r="D127" t="s">
         <v>286</v>
       </c>
-      <c r="E127" s="21"/>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="E127" s="2"/>
+      <c r="F127" s="16"/>
+    </row>
+    <row r="128" spans="1:6">
       <c r="B128"/>
       <c r="C128" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="E128" s="21"/>
-    </row>
-    <row r="129" spans="1:5">
+        <v>332</v>
+      </c>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="19" t="s">
         <v>287</v>
       </c>
@@ -4455,751 +4594,623 @@
         <v>288</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="E129" s="21"/>
-    </row>
-    <row r="130" spans="1:5">
+        <v>289</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="F129" s="16"/>
+    </row>
+    <row r="130" spans="1:6" ht="53.25" customHeight="1">
       <c r="A130" s="19"/>
-      <c r="B130" t="s">
-        <v>289</v>
+      <c r="B130" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="D130" s="21"/>
       <c r="E130" s="21"/>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130" s="16"/>
+    </row>
+    <row r="131" spans="1:6">
       <c r="B131"/>
-      <c r="E131" s="21"/>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:6" ht="30">
       <c r="A132" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="B132" t="s">
         <v>291</v>
       </c>
-      <c r="B132" t="s">
-        <v>292</v>
+      <c r="C132" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="E132" s="21"/>
-    </row>
-    <row r="133" spans="1:5">
+        <v>293</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="F132" s="15"/>
+    </row>
+    <row r="133" spans="1:6" ht="43.5" customHeight="1">
       <c r="A133" s="19"/>
       <c r="B133" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D133" s="21"/>
       <c r="E133" s="21"/>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="B134"/>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="B135"/>
-    </row>
-    <row r="136" spans="1:5" ht="18.75">
-      <c r="A136" s="11" t="s">
+      <c r="F133" s="15"/>
+    </row>
+    <row r="134" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A134" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F134" s="16"/>
+    </row>
+    <row r="135" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A135" s="19"/>
+      <c r="B135" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F135" s="16"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="B136"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="B137"/>
+    </row>
+    <row r="138" spans="1:6" ht="18.75">
+      <c r="A138" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B136" s="12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="13" t="s">
+      <c r="B138" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="B139" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="30">
+      <c r="A140" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="18.75">
+      <c r="B142"/>
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="B144"/>
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="B145" t="s">
+        <v>299</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="E145" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="F145" s="16"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="19"/>
+      <c r="B146" t="s">
+        <v>300</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="16"/>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="B147"/>
+      <c r="C147" s="1"/>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B148" t="s">
+        <v>303</v>
+      </c>
+      <c r="D148" t="s">
+        <v>304</v>
+      </c>
+      <c r="E148" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="F148" s="15"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="19"/>
+      <c r="B149" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" t="s">
+        <v>286</v>
+      </c>
+      <c r="E149" s="21"/>
+      <c r="F149" s="15"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="B150"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="15"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B151" t="s">
+        <v>306</v>
+      </c>
+      <c r="D151" t="s">
+        <v>35</v>
+      </c>
+      <c r="E151" s="21"/>
+      <c r="F151" s="15"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="19"/>
+      <c r="B152" t="s">
+        <v>307</v>
+      </c>
+      <c r="D152" t="s">
+        <v>308</v>
+      </c>
+      <c r="E152" s="21"/>
+      <c r="F152" s="15"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="B153"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="15"/>
+    </row>
+    <row r="154" spans="1:6" ht="30">
+      <c r="A154" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E154" s="21"/>
+      <c r="F154" s="15"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="19"/>
+      <c r="B155" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E155" s="21"/>
+      <c r="F155" s="15"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="B156"/>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="B157"/>
+    </row>
+    <row r="158" spans="1:6" ht="18.75">
+      <c r="A158" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="1:6" ht="30">
+      <c r="A160" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="30">
-      <c r="A138" s="3" t="s">
+      <c r="C160" s="2"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C161" s="2"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="B162"/>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="B164"/>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B165" t="s">
+        <v>319</v>
+      </c>
+      <c r="D165" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E165" s="21"/>
+      <c r="F165" s="16"/>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="19"/>
+      <c r="B166" t="s">
+        <v>300</v>
+      </c>
+      <c r="D166" s="21"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="16"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="B167"/>
+      <c r="E167" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B168" t="s">
+        <v>321</v>
+      </c>
+      <c r="D168" t="s">
+        <v>304</v>
+      </c>
+      <c r="E168" s="21"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="19"/>
+      <c r="B169" t="s">
+        <v>20</v>
+      </c>
+      <c r="D169" t="s">
+        <v>286</v>
+      </c>
+      <c r="E169" s="21"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="B170"/>
+      <c r="E170" s="21"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B171" t="s">
+        <v>306</v>
+      </c>
+      <c r="D171" t="s">
+        <v>35</v>
+      </c>
+      <c r="E171" s="21"/>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="19"/>
+      <c r="B172" t="s">
+        <v>307</v>
+      </c>
+      <c r="D172" t="s">
+        <v>308</v>
+      </c>
+      <c r="E172" s="21"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="B173"/>
+      <c r="E173" s="21"/>
+    </row>
+    <row r="174" spans="1:6" ht="30">
+      <c r="A174" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E174" s="21"/>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="19"/>
+      <c r="B175" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E175" s="21"/>
+    </row>
+    <row r="176" spans="1:6" ht="18.75">
+      <c r="B176"/>
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="B177"/>
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="1:6" ht="18.75">
+      <c r="A178" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C178" s="2"/>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C179" s="2"/>
+    </row>
+    <row r="180" spans="1:6" ht="30">
+      <c r="A180" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="3" t="s">
+      <c r="B180" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="30">
+      <c r="A181" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="18.75">
-      <c r="B140"/>
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="1" t="s">
+      <c r="B181" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="B182"/>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="B142"/>
-      <c r="C142" s="2"/>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="B143" t="s">
+    </row>
+    <row r="184" spans="1:6">
+      <c r="B184"/>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="B185" t="s">
+        <v>327</v>
+      </c>
+      <c r="D185" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="E185" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F185" s="15"/>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="19"/>
+      <c r="B186" t="s">
         <v>300</v>
       </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="21" t="s">
+      <c r="D186" s="21"/>
+      <c r="E186" s="21"/>
+      <c r="F186" s="15"/>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="B187"/>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="19" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="19"/>
-      <c r="B144" t="s">
-        <v>301</v>
-      </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="21"/>
-      <c r="E144" s="21"/>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="B145"/>
-      <c r="C145" s="1"/>
-      <c r="E145" s="21"/>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="B188" t="s">
+        <v>321</v>
+      </c>
+      <c r="D188" t="s">
         <v>304</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E188" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="F188" s="15"/>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="19"/>
+      <c r="B189" t="s">
+        <v>20</v>
+      </c>
+      <c r="D189" t="s">
+        <v>286</v>
+      </c>
+      <c r="E189" s="21"/>
+      <c r="F189" s="15"/>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="B190"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="15"/>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="E146" s="21"/>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="19"/>
-      <c r="B147" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" t="s">
-        <v>286</v>
-      </c>
-      <c r="E147" s="21"/>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="B148"/>
-      <c r="E148" s="21"/>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="19" t="s">
+      <c r="B191" t="s">
         <v>306</v>
       </c>
-      <c r="B149" t="s">
+      <c r="D191" t="s">
+        <v>35</v>
+      </c>
+      <c r="E191" s="21"/>
+      <c r="F191" s="15"/>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="19"/>
+      <c r="B192" t="s">
         <v>307</v>
       </c>
-      <c r="D149" t="s">
-        <v>35</v>
-      </c>
-      <c r="E149" s="21"/>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="19"/>
-      <c r="B150" t="s">
+      <c r="D192" t="s">
         <v>308</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E192" s="21"/>
+      <c r="F192" s="15"/>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="B193"/>
+      <c r="E193" s="21"/>
+      <c r="F193" s="15"/>
+    </row>
+    <row r="194" spans="1:6" ht="30">
+      <c r="A194" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="E150" s="21"/>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="B151"/>
-      <c r="E151" s="21"/>
-    </row>
-    <row r="152" spans="1:5" ht="30">
-      <c r="A152" s="19" t="s">
+      <c r="B194" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="D194" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E194" s="21"/>
+      <c r="F194" s="15"/>
+    </row>
+    <row r="195" spans="1:6" ht="18.75">
+      <c r="A195" s="19"/>
+      <c r="B195" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="C195" s="9"/>
+      <c r="D195" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E152" s="21"/>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="19"/>
-      <c r="B153" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E153" s="21"/>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="B154"/>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="B155"/>
-    </row>
-    <row r="156" spans="1:5" ht="18.75">
-      <c r="A156" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B156" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="C157" s="1"/>
-    </row>
-    <row r="158" spans="1:5" ht="30">
-      <c r="A158" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C158" s="2"/>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C159" s="2"/>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="B160"/>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="B162"/>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="B163" t="s">
-        <v>320</v>
-      </c>
-      <c r="D163" s="21" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="19"/>
-      <c r="B164" t="s">
-        <v>301</v>
-      </c>
-      <c r="D164" s="21"/>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="B165"/>
-      <c r="E165" s="21"/>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="B166" t="s">
-        <v>322</v>
-      </c>
-      <c r="D166" t="s">
-        <v>305</v>
-      </c>
-      <c r="E166" s="21"/>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="19"/>
-      <c r="B167" t="s">
-        <v>20</v>
-      </c>
-      <c r="D167" t="s">
-        <v>286</v>
-      </c>
-      <c r="E167" s="21"/>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="B168"/>
-      <c r="E168" s="21"/>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="B169" t="s">
-        <v>307</v>
-      </c>
-      <c r="D169" t="s">
-        <v>35</v>
-      </c>
-      <c r="E169" s="21"/>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="19"/>
-      <c r="B170" t="s">
-        <v>308</v>
-      </c>
-      <c r="D170" t="s">
-        <v>309</v>
-      </c>
-      <c r="E170" s="21"/>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="B171"/>
-      <c r="E171" s="21"/>
-    </row>
-    <row r="172" spans="1:5" ht="30">
-      <c r="A172" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E172" s="21"/>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="19"/>
-      <c r="B173" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E173" s="21"/>
-    </row>
-    <row r="174" spans="1:5" ht="18.75">
-      <c r="B174"/>
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="B175"/>
-      <c r="C175" s="1"/>
-    </row>
-    <row r="176" spans="1:5" ht="18.75">
-      <c r="A176" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B176" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="C176" s="2"/>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C177" s="2"/>
-    </row>
-    <row r="178" spans="1:5" ht="30">
-      <c r="A178" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="30">
-      <c r="A179" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="B180"/>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="B182"/>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="B183" t="s">
-        <v>328</v>
-      </c>
-      <c r="D183" s="21" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="19"/>
-      <c r="B184" t="s">
-        <v>301</v>
-      </c>
-      <c r="D184" s="21"/>
-      <c r="E184" s="21"/>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="B185"/>
-      <c r="E185" s="21"/>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="B186" t="s">
-        <v>322</v>
-      </c>
-      <c r="D186" t="s">
-        <v>305</v>
-      </c>
-      <c r="E186" s="21"/>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="19"/>
-      <c r="B187" t="s">
-        <v>20</v>
-      </c>
-      <c r="D187" t="s">
-        <v>286</v>
-      </c>
-      <c r="E187" s="21"/>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="B188"/>
-      <c r="E188" s="21"/>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="B189" t="s">
-        <v>307</v>
-      </c>
-      <c r="D189" t="s">
-        <v>35</v>
-      </c>
-      <c r="E189" s="21"/>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="19"/>
-      <c r="B190" t="s">
-        <v>308</v>
-      </c>
-      <c r="D190" t="s">
-        <v>309</v>
-      </c>
-      <c r="E190" s="21"/>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="B191"/>
-      <c r="E191" s="21"/>
-    </row>
-    <row r="192" spans="1:5" ht="30">
-      <c r="A192" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E192" s="21"/>
-    </row>
-    <row r="193" spans="1:5" ht="18.75">
-      <c r="A193" s="19"/>
-      <c r="B193" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C193" s="9"/>
-      <c r="D193" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="18.75">
-      <c r="A195" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B195" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C195" s="9"/>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B196" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C196" s="1"/>
-    </row>
-    <row r="197" spans="1:5" ht="30">
-      <c r="A197" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C197" s="2"/>
-    </row>
-    <row r="198" spans="1:5" ht="30">
-      <c r="A198" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C198" s="2"/>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="1"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C200" s="1"/>
-    </row>
-    <row r="202" spans="1:5" ht="30">
-      <c r="A202" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C202" s="2"/>
-      <c r="D202" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E202" s="21"/>
-    </row>
-    <row r="203" spans="1:5" ht="30">
-      <c r="A203" s="25"/>
-      <c r="B203" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C203" s="2"/>
-      <c r="D203" t="s">
-        <v>151</v>
-      </c>
-      <c r="E203" s="21"/>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="E204" s="21"/>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D205" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E205" s="21"/>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="25"/>
-      <c r="B206" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D206" s="23"/>
-      <c r="E206" s="21"/>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="25"/>
-      <c r="B207" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D207" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E207" s="21"/>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="25"/>
-      <c r="B208" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D208" s="20"/>
-      <c r="E208" s="21"/>
-    </row>
-    <row r="210" spans="1:5" ht="18.75">
-      <c r="A210" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B210" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C210" s="9"/>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B211" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C211" s="1"/>
-    </row>
-    <row r="212" spans="1:5" ht="30">
-      <c r="A212" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C212" s="2"/>
-    </row>
-    <row r="213" spans="1:5" ht="30">
-      <c r="A213" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C213" s="2"/>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C215" s="1"/>
-    </row>
-    <row r="217" spans="1:5" ht="30">
-      <c r="A217" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B217" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C217" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E217" s="21"/>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="25"/>
-      <c r="B218" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D218" t="s">
-        <v>156</v>
-      </c>
-      <c r="E218" s="21"/>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="25"/>
-      <c r="B219" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D219" t="s">
-        <v>157</v>
-      </c>
-      <c r="E219" s="21"/>
-    </row>
-    <row r="221" spans="1:5" ht="30">
-      <c r="A221" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C221" s="2"/>
-      <c r="D221" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E221" s="21"/>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="25"/>
-      <c r="B222" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C222" s="2"/>
-      <c r="D222" t="s">
-        <v>159</v>
-      </c>
-      <c r="E222" s="21"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="15"/>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="E196" s="21"/>
+      <c r="F196" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="67">
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="E188:E196"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="E148:E155"/>
+    <mergeCell ref="E51:E61"/>
+    <mergeCell ref="E86:E91"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="E129:E130"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A17"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E32:E41"/>
     <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D51:D61"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A60:A61"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D57:D58"/>
     <mergeCell ref="A28:A30"/>
-    <mergeCell ref="E28:E41"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="E71:E77"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="D74:D75"/>
     <mergeCell ref="D76:D77"/>
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="E112:E113"/>
     <mergeCell ref="A86:A88"/>
-    <mergeCell ref="E86:E88"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A103:A104"/>
     <mergeCell ref="E103:E104"/>
@@ -5207,45 +5218,32 @@
     <mergeCell ref="A109:A110"/>
     <mergeCell ref="E109:E110"/>
     <mergeCell ref="A90:A91"/>
-    <mergeCell ref="E90:E91"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="D100:D101"/>
     <mergeCell ref="E100:E101"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="D165:D166"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E133"/>
     <mergeCell ref="A126:A127"/>
     <mergeCell ref="A129:A130"/>
     <mergeCell ref="D129:D130"/>
     <mergeCell ref="A132:A133"/>
     <mergeCell ref="D132:D133"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E144:E153"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="E165:E173"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="E184:E192"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="A221:A222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="E202:E208"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="A217:A219"/>
-    <mergeCell ref="E217:E219"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="E167:E175"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A194:A195"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/Week_7/reTesting.xlsx
+++ b/Week_7/reTesting.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\QA\Week_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EF4320-A143-43FE-B2F2-80B63286F871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F250A9-3C7F-4B00-9F3D-23C4E6BB0DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{40891742-B03F-4153-8FC7-03D28505703E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40891742-B03F-4153-8FC7-03D28505703E}"/>
   </bookViews>
   <sheets>
-    <sheet name="regression " sheetId="11" r:id="rId1"/>
-    <sheet name="re-testing" sheetId="12" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
+    <sheet name="regression " sheetId="11" r:id="rId2"/>
+    <sheet name="re-testing" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="443">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1258,13 +1259,154 @@
   </si>
   <si>
     <t>Non-warranty service sign-up form is not visible on the page</t>
+  </si>
+  <si>
+    <t>Compatibility</t>
+  </si>
+  <si>
+    <t>REPDES_003</t>
+  </si>
+  <si>
+    <t>High (Compatibility issues can lead to poor user experience across different mobile devices and browsers)</t>
+  </si>
+  <si>
+    <t>Verify that the website is compatible with various mobile devices and browsers</t>
+  </si>
+  <si>
+    <t>1. Test on Popular Mobile Browsers</t>
+  </si>
+  <si>
+    <t>Open the website on different mobile browsers (e.g., Chrome, Safari, Firefox)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21+ / Galaxy Tab A / iPhone 13 Pro Max / DeskTop Win11</t>
+  </si>
+  <si>
+    <t>Website displays and functions correctly on all tested mobile browsers</t>
+  </si>
+  <si>
+    <t>Verify display and functionality</t>
+  </si>
+  <si>
+    <t>Chrome 126.0.6478.123 / Safary 17.5.1 / Chrome 127.0.6533.72 / Microsoft Edge 127.0.2651.74 / FireFox 128.0.3</t>
+  </si>
+  <si>
+    <t>No layout or functionality issues</t>
+  </si>
+  <si>
+    <t>Some pages are not displayed correctly</t>
+  </si>
+  <si>
+    <t>2. Verify Compatibility with Different OS</t>
+  </si>
+  <si>
+    <t>Open the website on different mobile operating systems (e.g., iOS, Android)</t>
+  </si>
+  <si>
+    <t>Android / iOS / Win 11</t>
+  </si>
+  <si>
+    <t>Website displays and functions correctly on both iOS and Android</t>
+  </si>
+  <si>
+    <t>No compatibility issues</t>
+  </si>
+  <si>
+    <t>3. Test on Various Mobile Devices</t>
+  </si>
+  <si>
+    <t>Open the website on various mobile devices (e.g., smartphones, tablets) with different screen sizes</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S21+ /  Galaxy Tab A / iPhone 13 Pro Max / Samsung J7</t>
+  </si>
+  <si>
+    <t>Website displays and functions correctly on all tested devices</t>
+  </si>
+  <si>
+    <t>No display or functionality issues</t>
+  </si>
+  <si>
+    <t>4. Check Performance on Older Devices</t>
+  </si>
+  <si>
+    <t>Test the website on older mobile devices with lower specifications</t>
+  </si>
+  <si>
+    <t>Samsung J7/ Android 9</t>
+  </si>
+  <si>
+    <t>Website performs adequately on older devices</t>
+  </si>
+  <si>
+    <t>Verify performance and usability</t>
+  </si>
+  <si>
+    <t>No significant performance or usability issues</t>
+  </si>
+  <si>
+    <t>Some pages are not displayed correctly. Problems with formatting and layout of some pages</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>iPhone X</t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>Windows 11</t>
+  </si>
+  <si>
+    <t>Android 14</t>
+  </si>
+  <si>
+    <t>iOS 16.7.8</t>
+  </si>
+  <si>
+    <t>Browsers</t>
+  </si>
+  <si>
+    <t>Google Chrome 127.0.6533.89 (64-bit)</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox 128.0.3 (64-bit)</t>
+  </si>
+  <si>
+    <t>Safari 16.7.8</t>
+  </si>
+  <si>
+    <t>Microsoft Edge 127.0.2651.74 (64-bit)</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Local Area Network (LAN)</t>
+  </si>
+  <si>
+    <t>WiFi</t>
+  </si>
+  <si>
+    <t>Configuration Management</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Samsung S21+/Samsung J7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1305,6 +1447,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1355,7 +1505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1436,6 +1586,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1839,12 +1995,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C62B7A-804A-461D-9626-7ECCB7AAAAB1}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" customWidth="1"/>
+    <col min="3" max="3" width="79.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24">
+      <c r="A1" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="33" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="33" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="33"/>
+    </row>
+    <row r="5" spans="1:2" ht="24">
+      <c r="A5" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="33" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="33" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="33"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="33"/>
+    </row>
+    <row r="10" spans="1:2" ht="24">
+      <c r="A10" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="33" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="33" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="33" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="33"/>
+    </row>
+    <row r="15" spans="1:2" ht="24">
+      <c r="A15" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="33" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="33"/>
+    </row>
+    <row r="18" spans="1:2" ht="24">
+      <c r="A18" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B395795-09EF-4018-BAA2-155C46CAB621}">
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76:G85"/>
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3389,11 +3660,230 @@
       </c>
       <c r="D165" s="8"/>
     </row>
+    <row r="167" spans="1:7" ht="18.75">
+      <c r="A167" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="F167"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="F168"/>
+    </row>
+    <row r="169" spans="1:7" ht="45">
+      <c r="A169" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F169"/>
+    </row>
+    <row r="170" spans="1:7" ht="30">
+      <c r="A170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F170"/>
+    </row>
+    <row r="171" spans="1:7" ht="18.75">
+      <c r="B171"/>
+      <c r="C171" s="9"/>
+      <c r="F171"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" s="1"/>
+      <c r="F172"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="B173"/>
+      <c r="C173" s="2"/>
+      <c r="F173"/>
+    </row>
+    <row r="174" spans="1:7" ht="30">
+      <c r="A174" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F174" s="30"/>
+    </row>
+    <row r="175" spans="1:7" ht="45">
+      <c r="A175" s="19"/>
+      <c r="B175" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E175" s="2"/>
+      <c r="F175" s="30"/>
+      <c r="G175" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1"/>
+      <c r="B176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1"/>
+      <c r="B177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="B178"/>
+      <c r="C178" s="1"/>
+      <c r="F178"/>
+    </row>
+    <row r="179" spans="1:7" ht="30">
+      <c r="A179" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F179" s="30"/>
+      <c r="G179" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="19"/>
+      <c r="B180" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F180" s="30"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="B181"/>
+      <c r="F181"/>
+    </row>
+    <row r="182" spans="1:7" ht="30">
+      <c r="A182" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F182" s="30"/>
+      <c r="G182" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="19"/>
+      <c r="B183" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F183" s="30"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="B184"/>
+      <c r="F184"/>
+    </row>
+    <row r="185" spans="1:7" ht="30">
+      <c r="A185" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F185" s="16"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="19"/>
+      <c r="B186" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F186" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="54">
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A185:A186"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="G76:G85"/>
     <mergeCell ref="G129:G132"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A179:A180"/>
     <mergeCell ref="D127:D132"/>
     <mergeCell ref="D143:D148"/>
     <mergeCell ref="G160:G162"/>
@@ -3452,12 +3942,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8D4B5D-2F4C-4BCB-8A3F-2BEA1FF7CC10}">
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>

--- a/Week_7/reTesting.xlsx
+++ b/Week_7/reTesting.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\QA\Week_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F250A9-3C7F-4B00-9F3D-23C4E6BB0DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B473B8-367A-4103-B0DB-76A34880560C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40891742-B03F-4153-8FC7-03D28505703E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{40891742-B03F-4153-8FC7-03D28505703E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
+    <sheet name="test environment" sheetId="13" r:id="rId1"/>
     <sheet name="regression " sheetId="11" r:id="rId2"/>
     <sheet name="re-testing" sheetId="12" r:id="rId3"/>
+    <sheet name="finalization" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,12 +71,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="444">
   <si>
     <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>TC_001</t>
   </si>
   <si>
     <t>Risk</t>
@@ -109,9 +107,6 @@
     <t>Test Case Title</t>
   </si>
   <si>
-    <t>TC_002</t>
-  </si>
-  <si>
     <t>High (Users might not be able to log in, impacting user retention)</t>
   </si>
   <si>
@@ -208,9 +203,6 @@
     <t xml:space="preserve"> User Registration</t>
   </si>
   <si>
-    <t>TC_003</t>
-  </si>
-  <si>
     <t>Medium-High (Issues with search functionality can impact user experience)</t>
   </si>
   <si>
@@ -247,9 +239,6 @@
     <t>Order Placement</t>
   </si>
   <si>
-    <t>TC_004</t>
-  </si>
-  <si>
     <t>Very High (Issues with order placement can lead to revenue loss)</t>
   </si>
   <si>
@@ -328,15 +317,9 @@
     <t>Items are removed correctly</t>
   </si>
   <si>
-    <t>TC_005</t>
-  </si>
-  <si>
     <t>Payment Processing</t>
   </si>
   <si>
-    <t>TC_006</t>
-  </si>
-  <si>
     <t>Very High (Payment issues can lead to revenue loss and customer dissatisfaction)</t>
   </si>
   <si>
@@ -376,9 +359,6 @@
     <t>Account Security</t>
   </si>
   <si>
-    <t>TC_007</t>
-  </si>
-  <si>
     <t>Very High (Security issues can lead to data breaches and loss of customer trust)</t>
   </si>
   <si>
@@ -409,9 +389,6 @@
     <t>Reset password successfully</t>
   </si>
   <si>
-    <t>TC_008</t>
-  </si>
-  <si>
     <t>Performance Under Load</t>
   </si>
   <si>
@@ -556,9 +533,6 @@
     <t>Content Delivery Network (CDN)</t>
   </si>
   <si>
-    <t>HOST_002</t>
-  </si>
-  <si>
     <t>Medium-High (Inefficient content delivery can lead to slow load times)</t>
   </si>
   <si>
@@ -601,15 +575,9 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>HOST_004</t>
-  </si>
-  <si>
     <t>SSL Certificates</t>
   </si>
   <si>
-    <t>HOST_005</t>
-  </si>
-  <si>
     <t>High (Lack of SSL can lead to security vulnerabilities and loss of user trust)</t>
   </si>
   <si>
@@ -667,9 +635,6 @@
     <t>Protection from DDoS Attacks</t>
   </si>
   <si>
-    <t>HOST_006</t>
-  </si>
-  <si>
     <t>Very High (DDoS attacks can lead to downtime and loss of service)</t>
   </si>
   <si>
@@ -721,9 +686,6 @@
     <t>Firewall (WAF)</t>
   </si>
   <si>
-    <t>HOST_007</t>
-  </si>
-  <si>
     <t>High (Lack of firewall protection can lead to vulnerabilities and security breaches)</t>
   </si>
   <si>
@@ -832,9 +794,6 @@
     <t>Encryption of Payment Data</t>
   </si>
   <si>
-    <t>SEC_003</t>
-  </si>
-  <si>
     <t>Very High (Unencrypted payment data can lead to financial fraud and data theft)</t>
   </si>
   <si>
@@ -895,9 +854,6 @@
     <t>No plaintext payment data is exposed</t>
   </si>
   <si>
-    <t>CE_001</t>
-  </si>
-  <si>
     <t>Review on a Product</t>
   </si>
   <si>
@@ -958,9 +914,6 @@
     <t>Sign Up for a Test Drive</t>
   </si>
   <si>
-    <t>CE_002</t>
-  </si>
-  <si>
     <t>High (Issues with test drive sign-up can lead to loss of potential customers)</t>
   </si>
   <si>
@@ -1018,9 +971,6 @@
     <t>Sign Up for Warranty Service</t>
   </si>
   <si>
-    <t>CE_003</t>
-  </si>
-  <si>
     <t>High (Issues with warranty service sign-up can lead to dissatisfied customers)</t>
   </si>
   <si>
@@ -1042,9 +992,6 @@
     <t>Sign Up for Non-Warranty Service</t>
   </si>
   <si>
-    <t>CE_004</t>
-  </si>
-  <si>
     <t>High (Issues with non-warranty service sign-up can lead to dissatisfied customers)</t>
   </si>
   <si>
@@ -1087,9 +1034,6 @@
     <t>Verify Product Information Page</t>
   </si>
   <si>
-    <t>CE_005</t>
-  </si>
-  <si>
     <t>High (Lack of detailed product information can lead to customer dissatisfaction and reduced sales)</t>
   </si>
   <si>
@@ -1264,9 +1208,6 @@
     <t>Compatibility</t>
   </si>
   <si>
-    <t>REPDES_003</t>
-  </si>
-  <si>
     <t>High (Compatibility issues can lead to poor user experience across different mobile devices and browsers)</t>
   </si>
   <si>
@@ -1354,6 +1295,9 @@
     <t>PC</t>
   </si>
   <si>
+    <t>Samsung S21+</t>
+  </si>
+  <si>
     <t>iPhone X</t>
   </si>
   <si>
@@ -1399,7 +1343,68 @@
     <t>Git</t>
   </si>
   <si>
-    <t>Samsung S21+/Samsung J7</t>
+    <t>After a smoky retest and regression test, we can say that the site is 2/3 ready. Payments that are not implemented at all remain unready from critical functionality. The user account remains unprepared. There are many problems with the layout, the main one being a very large floating header that constantly covers the content.
+At this stage, I recommend returning the site for improvement.</t>
+  </si>
+  <si>
+    <t>RegrTC_001</t>
+  </si>
+  <si>
+    <t>RegrTC_002</t>
+  </si>
+  <si>
+    <t>RegrTC_004</t>
+  </si>
+  <si>
+    <t>RegrTC_005</t>
+  </si>
+  <si>
+    <t>RegrTC_006</t>
+  </si>
+  <si>
+    <t>RegrTC_007</t>
+  </si>
+  <si>
+    <t>RegrTC_003</t>
+  </si>
+  <si>
+    <t>RegrTC_008</t>
+  </si>
+  <si>
+    <t>RegrTC_009</t>
+  </si>
+  <si>
+    <t>RegrTC_0010</t>
+  </si>
+  <si>
+    <t>ReTC_001</t>
+  </si>
+  <si>
+    <t>ReTC_002</t>
+  </si>
+  <si>
+    <t>ReTC_003</t>
+  </si>
+  <si>
+    <t>ReTC_004</t>
+  </si>
+  <si>
+    <t>ReTC_005</t>
+  </si>
+  <si>
+    <t>ReTC_006</t>
+  </si>
+  <si>
+    <t>ReTC_007</t>
+  </si>
+  <si>
+    <t>ReTC_008</t>
+  </si>
+  <si>
+    <t>ReTC_009</t>
+  </si>
+  <si>
+    <t>ReTC_0010</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1591,6 +1596,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1998,33 +2009,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C62B7A-804A-461D-9626-7ECCB7AAAAB1}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" customWidth="1"/>
-    <col min="2" max="2" width="63.85546875" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="3" width="79.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24">
       <c r="A1" s="32" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="33" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="33" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2032,20 +2043,20 @@
     </row>
     <row r="5" spans="1:2" ht="24">
       <c r="A5" s="32" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="33" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="33" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2056,25 +2067,25 @@
     </row>
     <row r="10" spans="1:2" ht="24">
       <c r="A10" s="32" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="33" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="33" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="33" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2082,15 +2093,15 @@
     </row>
     <row r="15" spans="1:2" ht="24">
       <c r="A15" s="32" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="33" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2098,10 +2109,10 @@
     </row>
     <row r="18" spans="1:2" ht="24">
       <c r="A18" s="32" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -2114,8 +2125,8 @@
   <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C189" sqref="C189"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2131,27 +2142,27 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
       <c r="C1" s="10" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -2160,25 +2171,25 @@
         <v>0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1</v>
+        <v>424</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="60" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="54.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -2189,10 +2200,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -2203,45 +2214,45 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:7" ht="39.75" customHeight="1">
       <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -2252,46 +2263,46 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19"/>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="29.25" customHeight="1">
       <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="15"/>
@@ -2303,24 +2314,24 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="24" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="19"/>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="24"/>
@@ -2330,7 +2341,7 @@
     <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="24"/>
@@ -2340,7 +2351,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="24"/>
@@ -2350,44 +2361,44 @@
     <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="19"/>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="19"/>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="18.75">
       <c r="A26" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="9"/>
     </row>
@@ -2396,75 +2407,75 @@
         <v>0</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>12</v>
+        <v>425</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="43.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="30">
       <c r="A29" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="19"/>
       <c r="B34" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="19"/>
       <c r="B35" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F35" s="16"/>
     </row>
@@ -2473,52 +2484,52 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="C37" s="17" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="19"/>
       <c r="B38" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="19"/>
       <c r="B39" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="21" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30">
       <c r="A40" s="19"/>
       <c r="B40" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="21"/>
@@ -2528,30 +2539,30 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:7" ht="30">
       <c r="A43" s="19"/>
       <c r="B43" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="19"/>
       <c r="B44" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="16"/>
@@ -2559,20 +2570,20 @@
     <row r="45" spans="1:7">
       <c r="A45" s="19"/>
       <c r="B45" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="19"/>
       <c r="B46" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="16"/>
@@ -2580,22 +2591,22 @@
     <row r="47" spans="1:7">
       <c r="A47" s="19"/>
       <c r="B47" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E47" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F47" s="16"/>
     </row>
     <row r="50" spans="1:6" ht="18.75">
       <c r="A50" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C50" s="9"/>
     </row>
@@ -2604,116 +2615,116 @@
         <v>0</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>58</v>
+        <v>430</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="30">
       <c r="A52" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:6" ht="30">
       <c r="A53" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C55" s="1"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F57" s="16"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="19"/>
       <c r="B58" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F58" s="16"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="19"/>
       <c r="B61" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E61" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F61" s="16"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="19"/>
       <c r="B62" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E62" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F62" s="16"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="19"/>
       <c r="B63" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="19"/>
       <c r="B64" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
@@ -2722,20 +2733,20 @@
     <row r="65" spans="1:7">
       <c r="A65" s="19"/>
       <c r="B65" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F65" s="16"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="19"/>
       <c r="B66" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
@@ -2743,10 +2754,10 @@
     </row>
     <row r="68" spans="1:7" ht="18.75">
       <c r="A68" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C68" s="9"/>
     </row>
@@ -2755,72 +2766,72 @@
         <v>0</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>85</v>
+        <v>426</v>
       </c>
       <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="30">
       <c r="A70" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:7" ht="30">
       <c r="A71" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:7" ht="26.25" customHeight="1"/>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C73" s="1"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D75" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E75" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F75" s="16"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="19"/>
       <c r="B76" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="19"/>
       <c r="B77" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D77" s="20"/>
       <c r="E77" s="21"/>
@@ -2832,13 +2843,13 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E79" s="21"/>
       <c r="G79" s="21"/>
@@ -2846,7 +2857,7 @@
     <row r="80" spans="1:7">
       <c r="A80" s="19"/>
       <c r="B80" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D80" s="23"/>
       <c r="E80" s="21"/>
@@ -2856,10 +2867,10 @@
     <row r="81" spans="1:7">
       <c r="A81" s="19"/>
       <c r="B81" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D81" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E81" s="21"/>
       <c r="F81" s="15"/>
@@ -2872,13 +2883,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E83" s="21"/>
       <c r="F83" s="15"/>
@@ -2887,7 +2898,7 @@
     <row r="84" spans="1:7">
       <c r="A84" s="19"/>
       <c r="B84" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
@@ -2897,10 +2908,10 @@
     <row r="85" spans="1:7">
       <c r="A85" s="19"/>
       <c r="B85" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E85" s="21"/>
       <c r="F85" s="15"/>
@@ -2908,10 +2919,10 @@
     </row>
     <row r="86" spans="1:7" ht="18.75">
       <c r="A86" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C86"/>
       <c r="D86" s="4"/>
@@ -2921,27 +2932,27 @@
         <v>0</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>161</v>
+        <v>427</v>
       </c>
       <c r="C87"/>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:7" ht="30">
       <c r="A88" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C88"/>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:7" ht="30">
       <c r="A89" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C89"/>
       <c r="D89" s="2"/>
@@ -2952,10 +2963,10 @@
     </row>
     <row r="91" spans="1:7" ht="18.75">
       <c r="A91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C91"/>
       <c r="D91" s="9"/>
@@ -2966,19 +2977,19 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="19" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" t="e" vm="1">
@@ -2988,14 +2999,14 @@
     <row r="94" spans="1:7">
       <c r="A94" s="19"/>
       <c r="B94" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C94" s="21"/>
       <c r="D94" s="2"/>
       <c r="E94" s="21"/>
       <c r="F94" s="16"/>
       <c r="G94" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3005,24 +3016,24 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="19" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="21" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="F96" s="16"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="19"/>
       <c r="B97" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C97" s="21"/>
       <c r="D97" s="8"/>
@@ -3036,23 +3047,23 @@
     </row>
     <row r="99" spans="1:6" ht="45">
       <c r="A99" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D99" s="8"/>
       <c r="F99" s="16"/>
     </row>
     <row r="101" spans="1:6" ht="18.75">
       <c r="A101" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C101"/>
       <c r="D101" s="2"/>
@@ -3062,27 +3073,27 @@
         <v>0</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>176</v>
+        <v>428</v>
       </c>
       <c r="C102"/>
       <c r="D102" s="8"/>
     </row>
     <row r="103" spans="1:6" ht="30">
       <c r="A103" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C103"/>
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:6" ht="30">
       <c r="A104" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C104"/>
       <c r="D104" s="8"/>
@@ -3093,10 +3104,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C106"/>
       <c r="D106" s="8"/>
@@ -3107,33 +3118,33 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="19" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B108" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C108" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="E108" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F108" s="16"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="19"/>
       <c r="B109" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C109" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F109" s="16"/>
     </row>
@@ -3144,24 +3155,24 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="19" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B111" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="21" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F111" s="16"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="19"/>
       <c r="B112" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C112" s="21"/>
       <c r="D112" s="8"/>
@@ -3175,26 +3186,26 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="19" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B114" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F114" s="16"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="19"/>
       <c r="B115" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C115" s="21"/>
       <c r="D115" s="8"/>
@@ -3208,19 +3219,19 @@
     </row>
     <row r="117" spans="1:6" ht="30">
       <c r="A117" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="F117" s="16"/>
     </row>
@@ -3230,10 +3241,10 @@
     </row>
     <row r="119" spans="1:6" ht="18.75">
       <c r="A119" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C119"/>
       <c r="D119" s="8"/>
@@ -3243,27 +3254,27 @@
         <v>0</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>178</v>
+        <v>429</v>
       </c>
       <c r="C120"/>
       <c r="D120" s="1"/>
     </row>
     <row r="121" spans="1:6" ht="30">
       <c r="A121" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C121"/>
       <c r="D121" s="8"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C122"/>
       <c r="D122" s="8"/>
@@ -3274,10 +3285,10 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C124"/>
       <c r="D124" s="8"/>
@@ -3288,26 +3299,26 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="19" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B126" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C126" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="19"/>
       <c r="B127" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C127" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="F127" s="16"/>
     </row>
@@ -3318,27 +3329,27 @@
     </row>
     <row r="129" spans="1:7" ht="30">
       <c r="A129" s="19" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D129" s="21"/>
       <c r="F129" s="16"/>
       <c r="G129" s="21" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="19"/>
       <c r="B130" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D130" s="21"/>
       <c r="F130" s="16"/>
@@ -3352,13 +3363,13 @@
     </row>
     <row r="132" spans="1:7" ht="30">
       <c r="A132" s="19" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D132" s="21"/>
       <c r="F132" s="16"/>
@@ -3367,10 +3378,10 @@
     <row r="133" spans="1:7">
       <c r="A133" s="19"/>
       <c r="B133" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D133" s="8"/>
       <c r="F133" s="16"/>
@@ -3381,10 +3392,10 @@
     </row>
     <row r="135" spans="1:7" ht="18.75">
       <c r="A135" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C135"/>
       <c r="D135" s="1"/>
@@ -3394,27 +3405,27 @@
         <v>0</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>198</v>
+        <v>431</v>
       </c>
       <c r="C136"/>
       <c r="D136" s="2"/>
     </row>
     <row r="137" spans="1:7" ht="30">
       <c r="A137" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C137"/>
       <c r="D137" s="2"/>
     </row>
     <row r="138" spans="1:7" ht="30">
       <c r="A138" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C138"/>
       <c r="D138" s="8"/>
@@ -3425,10 +3436,10 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C140"/>
       <c r="D140" s="8"/>
@@ -3439,26 +3450,26 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="19" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D142" s="8"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="19"/>
       <c r="B143" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3467,23 +3478,23 @@
     </row>
     <row r="145" spans="1:7" ht="30">
       <c r="A145" s="19" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D145" s="21"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="19"/>
       <c r="B146" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D146" s="21"/>
     </row>
@@ -3493,23 +3504,23 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="19" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D148" s="21"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="19"/>
       <c r="B149" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D149" s="8"/>
     </row>
@@ -3519,10 +3530,10 @@
     </row>
     <row r="151" spans="1:7" ht="18.75">
       <c r="A151" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C151"/>
       <c r="D151" s="8"/>
@@ -3532,27 +3543,27 @@
         <v>0</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>216</v>
+        <v>432</v>
       </c>
       <c r="C152"/>
       <c r="D152" s="8"/>
     </row>
     <row r="153" spans="1:7" ht="30">
       <c r="A153" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C153"/>
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:7" ht="30">
       <c r="A154" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C154"/>
       <c r="D154" s="8"/>
@@ -3563,10 +3574,10 @@
     </row>
     <row r="156" spans="1:7" ht="18.75">
       <c r="A156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C156"/>
       <c r="D156" s="9"/>
@@ -3577,23 +3588,23 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="19" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="19"/>
       <c r="B159" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D159" s="2"/>
     </row>
@@ -3606,31 +3617,31 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="19" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="G161" s="21"/>
     </row>
     <row r="162" spans="1:7" ht="30">
       <c r="A162" s="19"/>
       <c r="B162" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D162" s="8"/>
       <c r="E162" s="2" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="G162" s="21"/>
     </row>
@@ -3640,32 +3651,32 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="19" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D164" s="2"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="19"/>
       <c r="B165" s="2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D165" s="8"/>
     </row>
     <row r="167" spans="1:7" ht="18.75">
       <c r="A167" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="F167"/>
     </row>
@@ -3674,25 +3685,25 @@
         <v>0</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="F168"/>
     </row>
     <row r="169" spans="1:7" ht="45">
       <c r="A169" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="F169"/>
     </row>
     <row r="170" spans="1:7" ht="30">
       <c r="A170" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="F170"/>
     </row>
@@ -3703,10 +3714,10 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C172" s="1"/>
       <c r="F172"/>
@@ -3718,37 +3729,37 @@
     </row>
     <row r="174" spans="1:7" ht="30">
       <c r="A174" s="19" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="F174" s="30"/>
     </row>
     <row r="175" spans="1:7" ht="45">
       <c r="A175" s="19"/>
       <c r="B175" s="2" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="30"/>
       <c r="G175" s="2" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -3770,35 +3781,35 @@
     </row>
     <row r="179" spans="1:7" ht="30">
       <c r="A179" s="19" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="F179" s="30"/>
       <c r="G179" s="2" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="19"/>
       <c r="B180" s="2" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="F180" s="30"/>
     </row>
@@ -3808,35 +3819,35 @@
     </row>
     <row r="182" spans="1:7" ht="30">
       <c r="A182" s="19" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="2" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="19"/>
       <c r="B183" s="2" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="F183" s="30"/>
     </row>
@@ -3846,32 +3857,32 @@
     </row>
     <row r="185" spans="1:7" ht="30">
       <c r="A185" s="19" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="F185" s="16"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="19"/>
       <c r="B186" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="F186" s="16"/>
     </row>
@@ -3946,9 +3957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8D4B5D-2F4C-4BCB-8A3F-2BEA1FF7CC10}">
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C202" sqref="C202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3964,27 +3975,27 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
       <c r="C1" s="10" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="A3" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="9"/>
     </row>
@@ -3993,25 +4004,25 @@
         <v>0</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>45</v>
+        <v>434</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="54.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="40.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -4022,52 +4033,52 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1"/>
     <row r="10" spans="1:7">
       <c r="A10" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="2" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="39.75" customHeight="1">
       <c r="A11" s="19"/>
       <c r="B11" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="19"/>
       <c r="B12" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="15"/>
@@ -4077,20 +4088,20 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19"/>
       <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="15"/>
@@ -4098,23 +4109,23 @@
     <row r="16" spans="1:7" ht="29.25" customHeight="1">
       <c r="A16" s="19"/>
       <c r="B16" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="19"/>
       <c r="B17" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="15"/>
@@ -4124,10 +4135,10 @@
     <row r="20" spans="1:6" ht="15" customHeight="1"/>
     <row r="21" spans="1:6" ht="31.5" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C21" s="9"/>
     </row>
@@ -4136,69 +4147,69 @@
         <v>0</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>87</v>
+        <v>435</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="43.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="51.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="43.5" customHeight="1">
       <c r="A28" s="25" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="25"/>
       <c r="B29" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="25"/>
       <c r="B30" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
@@ -4209,23 +4220,23 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="25" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="25"/>
       <c r="B33" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="21"/>
@@ -4234,7 +4245,7 @@
     <row r="34" spans="1:6">
       <c r="A34" s="25"/>
       <c r="B34" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="21"/>
@@ -4243,10 +4254,10 @@
     <row r="35" spans="1:6" ht="30">
       <c r="A35" s="25"/>
       <c r="B35" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="15"/>
@@ -4254,10 +4265,10 @@
     <row r="36" spans="1:6" ht="30">
       <c r="A36" s="25"/>
       <c r="B36" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="15"/>
@@ -4268,10 +4279,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="15"/>
@@ -4279,10 +4290,10 @@
     <row r="39" spans="1:6" ht="30">
       <c r="A39" s="25"/>
       <c r="B39" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="15"/>
@@ -4290,10 +4301,10 @@
     <row r="40" spans="1:6">
       <c r="A40" s="25"/>
       <c r="B40" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="15"/>
@@ -4301,10 +4312,10 @@
     <row r="41" spans="1:6">
       <c r="A41" s="25"/>
       <c r="B41" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="15"/>
@@ -4319,10 +4330,10 @@
     </row>
     <row r="44" spans="1:6" ht="18.75">
       <c r="A44" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C44"/>
     </row>
@@ -4331,25 +4342,25 @@
         <v>0</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="C45"/>
     </row>
     <row r="46" spans="1:6" ht="30">
       <c r="A46" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C46"/>
     </row>
     <row r="47" spans="1:6" ht="30">
       <c r="A47" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C47"/>
     </row>
@@ -4359,10 +4370,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C49"/>
     </row>
@@ -4372,27 +4383,27 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="19" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B51" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="19"/>
       <c r="B52" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="E52" s="21"/>
       <c r="F52" s="15"/>
@@ -4405,14 +4416,14 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="19" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B54" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="E54" s="21"/>
       <c r="F54" s="15"/>
@@ -4420,7 +4431,7 @@
     <row r="55" spans="1:6">
       <c r="A55" s="19"/>
       <c r="B55" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
@@ -4435,14 +4446,14 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1">
       <c r="A57" s="19" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B57" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="E57" s="21"/>
       <c r="F57" s="15"/>
@@ -4450,7 +4461,7 @@
     <row r="58" spans="1:6">
       <c r="A58" s="19"/>
       <c r="B58" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
@@ -4465,14 +4476,14 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="19" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B60" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C60"/>
       <c r="D60" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="E60" s="21"/>
       <c r="F60" s="15"/>
@@ -4480,11 +4491,11 @@
     <row r="61" spans="1:6">
       <c r="A61" s="19"/>
       <c r="B61" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C61"/>
       <c r="D61" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="E61" s="21"/>
       <c r="F61" s="15"/>
@@ -4497,10 +4508,10 @@
     </row>
     <row r="64" spans="1:6" ht="18.75">
       <c r="A64" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C64" s="9"/>
     </row>
@@ -4509,25 +4520,25 @@
         <v>0</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>101</v>
+        <v>437</v>
       </c>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:6" ht="30">
       <c r="A66" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:6" ht="30">
       <c r="A67" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2"/>
     </row>
@@ -4538,40 +4549,40 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C69" s="1"/>
     </row>
     <row r="71" spans="1:6" ht="30">
       <c r="A71" s="25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="F71" s="15"/>
     </row>
     <row r="72" spans="1:6" ht="26.25" customHeight="1">
       <c r="A72" s="25"/>
       <c r="B72" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E72" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="F72" s="15"/>
     </row>
@@ -4581,13 +4592,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="25" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="15"/>
@@ -4595,7 +4606,7 @@
     <row r="75" spans="1:6">
       <c r="A75" s="25"/>
       <c r="B75" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" s="2"/>
@@ -4604,10 +4615,10 @@
     <row r="76" spans="1:6">
       <c r="A76" s="25"/>
       <c r="B76" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="15"/>
@@ -4615,7 +4626,7 @@
     <row r="77" spans="1:6">
       <c r="A77" s="25"/>
       <c r="B77" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D77" s="20"/>
       <c r="E77" s="2"/>
@@ -4623,10 +4634,10 @@
     </row>
     <row r="79" spans="1:6" ht="18.75">
       <c r="A79" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C79" s="9"/>
     </row>
@@ -4635,62 +4646,62 @@
         <v>0</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>112</v>
+        <v>438</v>
       </c>
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="30">
       <c r="A81" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="30">
       <c r="A82" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C84" s="1"/>
     </row>
     <row r="86" spans="1:6" ht="30">
       <c r="A86" s="25" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F86" s="30"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="25"/>
       <c r="B87" s="8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D87" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E87" s="21"/>
       <c r="F87" s="30"/>
@@ -4698,10 +4709,10 @@
     <row r="88" spans="1:6">
       <c r="A88" s="25"/>
       <c r="B88" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D88" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E88" s="21"/>
       <c r="F88" s="30"/>
@@ -4712,14 +4723,14 @@
     </row>
     <row r="90" spans="1:6" ht="30">
       <c r="A90" s="25" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E90" s="31"/>
       <c r="F90" s="30"/>
@@ -4727,11 +4738,11 @@
     <row r="91" spans="1:6">
       <c r="A91" s="25"/>
       <c r="B91" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E91" s="31"/>
       <c r="F91" s="30"/>
@@ -4741,10 +4752,10 @@
     </row>
     <row r="93" spans="1:6" ht="18.75">
       <c r="A93" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C93" s="9"/>
     </row>
@@ -4753,25 +4764,25 @@
         <v>0</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>274</v>
+        <v>439</v>
       </c>
       <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:6" ht="30">
       <c r="A95" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:6" ht="30">
       <c r="A96" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="C96" s="2"/>
     </row>
@@ -4781,10 +4792,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C98" s="1"/>
     </row>
@@ -4794,24 +4805,24 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="19" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B100" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="21" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="F100" s="16"/>
     </row>
     <row r="101" spans="1:6" ht="46.5" customHeight="1">
       <c r="A101" s="19"/>
       <c r="B101" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="21"/>
@@ -4825,30 +4836,30 @@
     </row>
     <row r="103" spans="1:6" ht="30">
       <c r="A103" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="F103" s="16"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="19"/>
       <c r="B104" s="2" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="16"/>
@@ -4856,37 +4867,37 @@
     <row r="105" spans="1:6">
       <c r="B105"/>
       <c r="C105" s="4" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="F105" s="16"/>
     </row>
     <row r="106" spans="1:6" ht="30">
       <c r="A106" s="19" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="2" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F106" s="16"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="19"/>
       <c r="B107" s="2" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="2" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="F107" s="16"/>
     </row>
@@ -4896,28 +4907,28 @@
     </row>
     <row r="109" spans="1:6" ht="30">
       <c r="A109" s="19" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="F109" s="15"/>
     </row>
     <row r="110" spans="1:6" ht="30">
       <c r="A110" s="19"/>
       <c r="B110" s="2" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="2" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="E110" s="21"/>
       <c r="F110" s="15"/>
@@ -4930,28 +4941,28 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="19" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="B112" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="F112" s="15"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="19"/>
       <c r="B113" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="E113" s="21"/>
       <c r="F113" s="15"/>
@@ -4966,10 +4977,10 @@
     </row>
     <row r="116" spans="1:6" ht="18.75">
       <c r="A116" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="18.75">
@@ -4977,25 +4988,25 @@
         <v>0</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>295</v>
+        <v>440</v>
       </c>
       <c r="C117" s="9"/>
     </row>
     <row r="118" spans="1:6" ht="30">
       <c r="A118" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C118" s="1"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C119" s="2"/>
     </row>
@@ -5005,10 +5016,10 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -5017,23 +5028,23 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="19" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B123" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="F123" s="16"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="19"/>
       <c r="B124" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D124" s="21"/>
       <c r="E124" s="21"/>
@@ -5045,26 +5056,26 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="19" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B126" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D126" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E126" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="F126" s="16"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="19"/>
       <c r="B127" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D127" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="16"/>
@@ -5072,32 +5083,32 @@
     <row r="128" spans="1:6">
       <c r="B128"/>
       <c r="C128" s="17" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="19" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B129" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="F129" s="16"/>
     </row>
     <row r="130" spans="1:6" ht="53.25" customHeight="1">
       <c r="A130" s="19"/>
       <c r="B130" s="2" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="D130" s="21"/>
       <c r="E130" s="21"/>
@@ -5109,26 +5120,26 @@
     </row>
     <row r="132" spans="1:6" ht="30">
       <c r="A132" s="19" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B132" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="F132" s="15"/>
     </row>
     <row r="133" spans="1:6" ht="43.5" customHeight="1">
       <c r="A133" s="19"/>
       <c r="B133" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D133" s="21"/>
       <c r="E133" s="21"/>
@@ -5136,29 +5147,29 @@
     </row>
     <row r="134" spans="1:6" ht="43.5" customHeight="1">
       <c r="A134" s="19" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="F134" s="16"/>
     </row>
     <row r="135" spans="1:6" ht="43.5" customHeight="1">
       <c r="A135" s="19"/>
       <c r="B135" s="2" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="F135" s="16"/>
     </row>
@@ -5170,10 +5181,10 @@
     </row>
     <row r="138" spans="1:6" ht="18.75">
       <c r="A138" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5181,23 +5192,23 @@
         <v>0</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>315</v>
+        <v>441</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="30">
       <c r="A140" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="18.75">
@@ -5206,10 +5217,10 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C143" s="1"/>
     </row>
@@ -5219,24 +5230,24 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="19" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B145" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="21" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="E145" s="21" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F145" s="16"/>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="19"/>
       <c r="B146" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="21"/>
@@ -5250,26 +5261,26 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="19" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B148" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="D148" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="F148" s="15"/>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="19"/>
       <c r="B149" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D149" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E149" s="21"/>
       <c r="F149" s="15"/>
@@ -5281,13 +5292,13 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="19" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B151" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E151" s="21"/>
       <c r="F151" s="15"/>
@@ -5295,10 +5306,10 @@
     <row r="152" spans="1:6">
       <c r="A152" s="19"/>
       <c r="B152" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D152" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E152" s="21"/>
       <c r="F152" s="15"/>
@@ -5310,13 +5321,13 @@
     </row>
     <row r="154" spans="1:6" ht="30">
       <c r="A154" s="19" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E154" s="21"/>
       <c r="F154" s="15"/>
@@ -5324,10 +5335,10 @@
     <row r="155" spans="1:6">
       <c r="A155" s="19"/>
       <c r="B155" s="2" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E155" s="21"/>
       <c r="F155" s="15"/>
@@ -5340,10 +5351,10 @@
     </row>
     <row r="158" spans="1:6" ht="18.75">
       <c r="A158" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C158" s="9"/>
     </row>
@@ -5352,25 +5363,25 @@
         <v>0</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>323</v>
+        <v>442</v>
       </c>
       <c r="C159" s="1"/>
     </row>
     <row r="160" spans="1:6" ht="30">
       <c r="A160" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C160" s="2"/>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="C161" s="2"/>
     </row>
@@ -5379,10 +5390,10 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C163" s="1"/>
     </row>
@@ -5391,13 +5402,13 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="19" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B165" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="E165" s="21"/>
       <c r="F165" s="16"/>
@@ -5405,7 +5416,7 @@
     <row r="166" spans="1:6">
       <c r="A166" s="19"/>
       <c r="B166" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="D166" s="21"/>
       <c r="E166" s="21"/>
@@ -5414,28 +5425,28 @@
     <row r="167" spans="1:6">
       <c r="B167"/>
       <c r="E167" s="21" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="19" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B168" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="D168" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E168" s="21"/>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="19"/>
       <c r="B169" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D169" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E169" s="21"/>
     </row>
@@ -5445,23 +5456,23 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="19" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B171" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D171" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E171" s="21"/>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="19"/>
       <c r="B172" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D172" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E172" s="21"/>
     </row>
@@ -5471,23 +5482,23 @@
     </row>
     <row r="174" spans="1:6" ht="30">
       <c r="A174" s="19" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E174" s="21"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="19"/>
       <c r="B175" s="2" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E175" s="21"/>
     </row>
@@ -5501,10 +5512,10 @@
     </row>
     <row r="178" spans="1:6" ht="18.75">
       <c r="A178" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C178" s="2"/>
     </row>
@@ -5513,24 +5524,24 @@
         <v>0</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>338</v>
+        <v>443</v>
       </c>
       <c r="C179" s="2"/>
     </row>
     <row r="180" spans="1:6" ht="30">
       <c r="A180" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="30">
       <c r="A181" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="C181" s="1"/>
     </row>
@@ -5539,10 +5550,10 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5550,23 +5561,23 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="19" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B185" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="E185" s="21" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="F185" s="15"/>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="19"/>
       <c r="B186" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="D186" s="21"/>
       <c r="E186" s="21"/>
@@ -5578,26 +5589,26 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="19" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B188" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="D188" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E188" s="21" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="F188" s="15"/>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="19"/>
       <c r="B189" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D189" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E189" s="21"/>
       <c r="F189" s="15"/>
@@ -5609,13 +5620,13 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="19" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B191" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D191" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E191" s="21"/>
       <c r="F191" s="15"/>
@@ -5623,10 +5634,10 @@
     <row r="192" spans="1:6">
       <c r="A192" s="19"/>
       <c r="B192" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D192" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E192" s="21"/>
       <c r="F192" s="15"/>
@@ -5638,13 +5649,13 @@
     </row>
     <row r="194" spans="1:6" ht="30">
       <c r="A194" s="19" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E194" s="21"/>
       <c r="F194" s="15"/>
@@ -5652,11 +5663,11 @@
     <row r="195" spans="1:6" ht="18.75">
       <c r="A195" s="19"/>
       <c r="B195" s="2" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="2" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E195" s="21"/>
       <c r="F195" s="15"/>
@@ -5738,4 +5749,354 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CF80A3-50FD-4CA7-BDBC-124823AA9B5E}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>